--- a/レジストリ配置.xlsx
+++ b/レジストリ配置.xlsx
@@ -430,17 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アドレスと値</t>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>値</t>
     <rPh sb="0" eb="1">
       <t>アタイ</t>
@@ -494,10 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Wire.biginTransmission()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Wire.endTransmission()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -538,6 +523,27 @@
     <rPh sb="8" eb="10">
       <t>ジッコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書込みでSPI.transferを実行する</t>
+    <rPh sb="0" eb="2">
+      <t>カキコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wire.beginTransmission()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2198,7 +2204,7 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3743,16 +3749,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="140" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E60" s="135" t="s">
         <v>105</v>
       </c>
       <c r="F60" s="136" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G60" s="146" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H60" s="147"/>
       <c r="I60" s="148"/>
@@ -3773,27 +3779,27 @@
         <v>2</v>
       </c>
       <c r="D61" s="140" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E61" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="136" t="s">
-        <v>108</v>
-      </c>
+      <c r="F61" s="136"/>
       <c r="G61" s="146" t="s">
-        <v>109</v>
-      </c>
-      <c r="H61" s="147"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="148"/>
-      <c r="M61" s="148"/>
-      <c r="N61" s="148"/>
-      <c r="O61" s="148"/>
-      <c r="P61" s="148"/>
-      <c r="Q61" s="149"/>
+        <v>107</v>
+      </c>
+      <c r="H61" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" s="143"/>
+      <c r="J61" s="143"/>
+      <c r="K61" s="143"/>
+      <c r="L61" s="143"/>
+      <c r="M61" s="143"/>
+      <c r="N61" s="143"/>
+      <c r="O61" s="143"/>
+      <c r="P61" s="143"/>
+      <c r="Q61" s="144"/>
     </row>
     <row r="62" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="20"/>
@@ -3821,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="134" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E63" s="135" t="s">
         <v>105</v>
@@ -3829,7 +3835,7 @@
       <c r="F63" s="136"/>
       <c r="G63" s="137"/>
       <c r="H63" s="138" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I63" s="138"/>
       <c r="J63" s="138"/>
@@ -3849,14 +3855,14 @@
         <v>1</v>
       </c>
       <c r="D64" s="140" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E64" s="135" t="s">
         <v>105</v>
       </c>
       <c r="F64" s="136"/>
       <c r="G64" s="141" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H64" s="142"/>
       <c r="I64" s="143"/>
@@ -3877,14 +3883,14 @@
         <v>2</v>
       </c>
       <c r="D65" s="140" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E65" s="135" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="136"/>
       <c r="G65" s="141" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H65" s="142"/>
       <c r="I65" s="143"/>
@@ -3905,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="140" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E66" s="135" t="s">
         <v>105</v>
@@ -3949,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" s="47"/>
       <c r="F68" s="66">
@@ -4339,19 +4345,19 @@
         <v>0</v>
       </c>
       <c r="D84" s="134" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E84" s="135" t="s">
         <v>105</v>
       </c>
       <c r="F84" s="134" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G84" s="150" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H84" s="142" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I84" s="143"/>
       <c r="J84" s="143"/>

--- a/レジストリ配置.xlsx
+++ b/レジストリ配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T8111009\Desktop\VirtualArduino\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21360" windowHeight="13230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Version 0.9.1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>EEPROM(101)</t>
   </si>
@@ -544,6 +539,10 @@
   </si>
   <si>
     <t>Wire.beginTransmission()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_MODE0：0　SPI_CLOCK_DIV32：6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1293,7 +1292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1441,6 +1440,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1450,15 +1494,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1468,135 +1503,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,69 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1814,6 +1804,79 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219324" y="9553575"/>
+          <a:ext cx="1514475" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>番ピンが使えない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2153,7 +2216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2204,7 +2267,7 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2218,52 +2281,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="75" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B3" s="70"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="11">
@@ -2276,20 +2339,20 @@
         <v>32</v>
       </c>
       <c r="E4" s="44"/>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="86"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
@@ -2302,20 +2365,20 @@
         <v>34</v>
       </c>
       <c r="E5" s="44"/>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
@@ -2330,24 +2393,24 @@
       <c r="E6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="57"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
@@ -2362,18 +2425,18 @@
       <c r="E7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="69"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
@@ -2388,18 +2451,18 @@
       <c r="E8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="57"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="69"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
@@ -2414,18 +2477,18 @@
       <c r="E9" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
@@ -2440,18 +2503,18 @@
       <c r="E10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="69"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
@@ -2466,18 +2529,18 @@
       <c r="E11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="69"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
@@ -2492,18 +2555,18 @@
       <c r="E12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="69"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
@@ -2518,18 +2581,18 @@
       <c r="E13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="69"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
@@ -2544,18 +2607,18 @@
       <c r="E14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="69"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
@@ -2570,18 +2633,18 @@
       <c r="E15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="69"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
@@ -2596,18 +2659,18 @@
       <c r="E16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
@@ -2622,18 +2685,18 @@
       <c r="E17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="69"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
@@ -2648,18 +2711,18 @@
       <c r="E18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="69"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
@@ -2674,18 +2737,18 @@
       <c r="E19" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
@@ -2700,18 +2763,18 @@
       <c r="E20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="69"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="11">
@@ -2726,18 +2789,18 @@
       <c r="E21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="57"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="69"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
@@ -2752,18 +2815,18 @@
       <c r="E22" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="69"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="11">
@@ -2778,18 +2841,18 @@
       <c r="E23" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="11">
@@ -2802,20 +2865,20 @@
         <v>32</v>
       </c>
       <c r="E24" s="47"/>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="69"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
@@ -2828,20 +2891,20 @@
         <v>34</v>
       </c>
       <c r="E25" s="47"/>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
@@ -2856,22 +2919,22 @@
       <c r="E26" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="F26" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="69"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="11">
@@ -2886,18 +2949,18 @@
       <c r="E27" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
@@ -2912,18 +2975,18 @@
       <c r="E28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="57"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="11">
@@ -2938,18 +3001,18 @@
       <c r="E29" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="69"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
@@ -2964,18 +3027,18 @@
       <c r="E30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="57"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="69"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="11">
@@ -2990,18 +3053,18 @@
       <c r="E31" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="57"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="69"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32" s="11">
@@ -3016,18 +3079,18 @@
       <c r="E32" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="57"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="69"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33" s="11">
@@ -3042,18 +3105,18 @@
       <c r="E33" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="57"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="69"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34" s="11">
@@ -3068,18 +3131,18 @@
       <c r="E34" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="57"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="69"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="11">
@@ -3094,18 +3157,18 @@
       <c r="E35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="57"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="69"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B36" s="11">
@@ -3120,18 +3183,18 @@
       <c r="E36" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="57"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="69"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37" s="11">
@@ -3146,18 +3209,18 @@
       <c r="E37" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="57"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="69"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38" s="11">
@@ -3172,18 +3235,18 @@
       <c r="E38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="57"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="69"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39" s="11">
@@ -3198,18 +3261,18 @@
       <c r="E39" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="57"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="69"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="11">
@@ -3224,18 +3287,18 @@
       <c r="E40" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="57"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="69"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B41" s="11">
@@ -3250,18 +3313,18 @@
       <c r="E41" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="57"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="69"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B42" s="11">
@@ -3276,18 +3339,18 @@
       <c r="E42" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="57"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="69"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43" s="11">
@@ -3302,18 +3365,18 @@
       <c r="E43" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="57"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="69"/>
     </row>
     <row r="44" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="20"/>
@@ -3322,16 +3385,16 @@
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="51"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="66"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B45" s="11">
@@ -3352,18 +3415,18 @@
       <c r="G45" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="55" t="s">
+      <c r="H45" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="57"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="69"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B46" s="11">
@@ -3384,18 +3447,18 @@
       <c r="G46" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="55" t="s">
+      <c r="H46" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="57"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="69"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B47" s="11">
@@ -3410,22 +3473,22 @@
       <c r="E47" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="113">
         <v>0</v>
       </c>
-      <c r="G47" s="66" t="s">
+      <c r="G47" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="57"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="69"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48" s="11">
@@ -3440,18 +3503,18 @@
       <c r="E48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="57"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="69"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B49" s="11">
@@ -3466,18 +3529,18 @@
       <c r="E49" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="57"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="69"/>
     </row>
     <row r="50" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="20"/>
@@ -3486,16 +3549,16 @@
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="51"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="66"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51" s="11">
@@ -3516,18 +3579,18 @@
       <c r="G51" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="55" t="s">
+      <c r="H51" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="57"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="69"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52" s="11">
@@ -3548,18 +3611,18 @@
       <c r="G52" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="55" t="s">
+      <c r="H52" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="57"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="69"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B53" s="11">
@@ -3574,22 +3637,22 @@
       <c r="E53" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="113">
         <v>0</v>
       </c>
-      <c r="G53" s="66" t="s">
+      <c r="G53" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="57"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="69"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54" s="11">
@@ -3604,18 +3667,18 @@
       <c r="E54" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="57"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="69"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55" s="11">
@@ -3630,18 +3693,18 @@
       <c r="E55" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="57"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="69"/>
     </row>
     <row r="56" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="20"/>
@@ -3650,16 +3713,16 @@
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="51"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="66"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57" s="11">
@@ -3680,16 +3743,16 @@
       <c r="G57" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="60"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="117"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="118"/>
     </row>
     <row r="58" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20"/>
@@ -3698,108 +3761,106 @@
       <c r="E58" s="23"/>
       <c r="F58" s="24"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="51"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="66"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B59" s="132">
+      <c r="B59" s="50">
         <v>5</v>
       </c>
-      <c r="C59" s="133">
+      <c r="C59" s="51">
         <v>0</v>
       </c>
-      <c r="D59" s="134" t="s">
+      <c r="D59" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="135" t="s">
+      <c r="E59" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F59" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="G59" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" s="138" t="s">
+      <c r="F59" s="58"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="I59" s="138"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="138"/>
-      <c r="L59" s="138"/>
-      <c r="M59" s="138"/>
-      <c r="N59" s="138"/>
-      <c r="O59" s="138"/>
-      <c r="P59" s="138"/>
-      <c r="Q59" s="139"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="72"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B60" s="132">
+      <c r="B60" s="50">
         <v>5</v>
       </c>
-      <c r="C60" s="133">
+      <c r="C60" s="51">
         <v>1</v>
       </c>
-      <c r="D60" s="140" t="s">
+      <c r="D60" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="135" t="s">
+      <c r="E60" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="136" t="s">
+      <c r="F60" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="G60" s="146" t="s">
+      <c r="G60" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="147"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="148"/>
-      <c r="M60" s="148"/>
-      <c r="N60" s="148"/>
-      <c r="O60" s="148"/>
-      <c r="P60" s="148"/>
-      <c r="Q60" s="149"/>
+      <c r="H60" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="115"/>
+      <c r="M60" s="115"/>
+      <c r="N60" s="115"/>
+      <c r="O60" s="115"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="116"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B61" s="132">
+      <c r="B61" s="50">
         <v>5</v>
       </c>
-      <c r="C61" s="133">
+      <c r="C61" s="51">
         <v>2</v>
       </c>
-      <c r="D61" s="140" t="s">
+      <c r="D61" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="135" t="s">
+      <c r="E61" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="136"/>
-      <c r="G61" s="146" t="s">
+      <c r="F61" s="54"/>
+      <c r="G61" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H61" s="142" t="s">
+      <c r="H61" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="I61" s="143"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="143"/>
-      <c r="L61" s="143"/>
-      <c r="M61" s="143"/>
-      <c r="N61" s="143"/>
-      <c r="O61" s="143"/>
-      <c r="P61" s="143"/>
-      <c r="Q61" s="144"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="116"/>
     </row>
     <row r="62" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="20"/>
@@ -3808,126 +3869,126 @@
       <c r="E62" s="23"/>
       <c r="F62" s="24"/>
       <c r="G62" s="25"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="51"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="66"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="132">
+      <c r="B63" s="50">
         <v>6</v>
       </c>
-      <c r="C63" s="133">
+      <c r="C63" s="51">
         <v>0</v>
       </c>
-      <c r="D63" s="134" t="s">
+      <c r="D63" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="135" t="s">
+      <c r="E63" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F63" s="136"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="138" t="s">
+      <c r="F63" s="54"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="I63" s="138"/>
-      <c r="J63" s="138"/>
-      <c r="K63" s="138"/>
-      <c r="L63" s="138"/>
-      <c r="M63" s="138"/>
-      <c r="N63" s="138"/>
-      <c r="O63" s="138"/>
-      <c r="P63" s="138"/>
-      <c r="Q63" s="139"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="72"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B64" s="132">
+      <c r="B64" s="50">
         <v>6</v>
       </c>
-      <c r="C64" s="133">
+      <c r="C64" s="51">
         <v>1</v>
       </c>
-      <c r="D64" s="140" t="s">
+      <c r="D64" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E64" s="135" t="s">
+      <c r="E64" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="136"/>
-      <c r="G64" s="141" t="s">
+      <c r="F64" s="54"/>
+      <c r="G64" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="H64" s="142"/>
-      <c r="I64" s="143"/>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143"/>
-      <c r="L64" s="143"/>
-      <c r="M64" s="143"/>
-      <c r="N64" s="143"/>
-      <c r="O64" s="143"/>
-      <c r="P64" s="143"/>
-      <c r="Q64" s="144"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="115"/>
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
+      <c r="N64" s="115"/>
+      <c r="O64" s="115"/>
+      <c r="P64" s="115"/>
+      <c r="Q64" s="116"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B65" s="132">
+      <c r="B65" s="50">
         <v>6</v>
       </c>
-      <c r="C65" s="133">
+      <c r="C65" s="51">
         <v>2</v>
       </c>
-      <c r="D65" s="140" t="s">
+      <c r="D65" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="135" t="s">
+      <c r="E65" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="136"/>
-      <c r="G65" s="141" t="s">
+      <c r="F65" s="54"/>
+      <c r="G65" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="H65" s="142"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="143"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="143"/>
-      <c r="M65" s="143"/>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="143"/>
-      <c r="Q65" s="144"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
+      <c r="L65" s="115"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="116"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B66" s="132">
+      <c r="B66" s="50">
         <v>6</v>
       </c>
-      <c r="C66" s="133">
+      <c r="C66" s="51">
         <v>3</v>
       </c>
-      <c r="D66" s="140" t="s">
+      <c r="D66" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="E66" s="135" t="s">
+      <c r="E66" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="136"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="143"/>
-      <c r="J66" s="143"/>
-      <c r="K66" s="143"/>
-      <c r="L66" s="143"/>
-      <c r="M66" s="143"/>
-      <c r="N66" s="143"/>
-      <c r="O66" s="143"/>
-      <c r="P66" s="143"/>
-      <c r="Q66" s="144"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
+      <c r="L66" s="115"/>
+      <c r="M66" s="115"/>
+      <c r="N66" s="115"/>
+      <c r="O66" s="115"/>
+      <c r="P66" s="115"/>
+      <c r="Q66" s="116"/>
     </row>
     <row r="67" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="20"/>
@@ -3936,16 +3997,16 @@
       <c r="E67" s="23"/>
       <c r="F67" s="24"/>
       <c r="G67" s="25"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="51"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="66"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B68" s="11">
@@ -3958,24 +4019,24 @@
         <v>110</v>
       </c>
       <c r="E68" s="47"/>
-      <c r="F68" s="66">
+      <c r="F68" s="104">
         <v>0</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="55" t="s">
+      <c r="H68" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="57"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="69"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B69" s="11">
@@ -3988,22 +4049,22 @@
         <v>60</v>
       </c>
       <c r="E69" s="47"/>
-      <c r="F69" s="67"/>
+      <c r="F69" s="105"/>
       <c r="G69" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H69" s="95" t="s">
+      <c r="H69" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="97"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="108"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="109"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B70" s="11">
@@ -4016,20 +4077,20 @@
         <v>63</v>
       </c>
       <c r="E70" s="47"/>
-      <c r="F70" s="67"/>
+      <c r="F70" s="105"/>
       <c r="G70" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="98"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="100"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="111"/>
+      <c r="J70" s="111"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="111"/>
+      <c r="M70" s="111"/>
+      <c r="N70" s="111"/>
+      <c r="O70" s="111"/>
+      <c r="P70" s="111"/>
+      <c r="Q70" s="112"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B71" s="11">
@@ -4042,22 +4103,22 @@
         <v>65</v>
       </c>
       <c r="E71" s="47"/>
-      <c r="F71" s="68"/>
+      <c r="F71" s="106"/>
       <c r="G71" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H71" s="55" t="s">
+      <c r="H71" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="57"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="69"/>
     </row>
     <row r="72" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="20"/>
@@ -4066,16 +4127,16 @@
       <c r="E72" s="23"/>
       <c r="F72" s="24"/>
       <c r="G72" s="25"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="51"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="65"/>
+      <c r="Q72" s="66"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B73" s="11">
@@ -4088,22 +4149,22 @@
         <v>68</v>
       </c>
       <c r="E73" s="48"/>
-      <c r="F73" s="84">
+      <c r="F73" s="98">
         <v>0</v>
       </c>
-      <c r="G73" s="92" t="s">
+      <c r="G73" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="H73" s="55"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="57"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="68"/>
+      <c r="N73" s="68"/>
+      <c r="O73" s="68"/>
+      <c r="P73" s="68"/>
+      <c r="Q73" s="69"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B74" s="11">
@@ -4116,18 +4177,18 @@
         <v>0</v>
       </c>
       <c r="E74" s="48"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="57"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="69"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B75" s="11">
@@ -4140,18 +4201,18 @@
         <v>1</v>
       </c>
       <c r="E75" s="48"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="56"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="57"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="68"/>
+      <c r="P75" s="68"/>
+      <c r="Q75" s="69"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B76" s="11">
@@ -4164,18 +4225,18 @@
         <v>2</v>
       </c>
       <c r="E76" s="48"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="57"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="68"/>
+      <c r="Q76" s="69"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B77" s="11">
@@ -4188,18 +4249,18 @@
         <v>3</v>
       </c>
       <c r="E77" s="48"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="57"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="68"/>
+      <c r="Q77" s="69"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B78" s="11">
@@ -4212,18 +4273,18 @@
         <v>4</v>
       </c>
       <c r="E78" s="48"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="57"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="69"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B79" s="11">
@@ -4236,18 +4297,18 @@
         <v>5</v>
       </c>
       <c r="E79" s="48"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="57"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="69"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B80" s="11">
@@ -4260,21 +4321,21 @@
         <v>6</v>
       </c>
       <c r="E80" s="48"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="93"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="130"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="57"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="68"/>
+      <c r="M80" s="68"/>
+      <c r="N80" s="68"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="68"/>
+      <c r="Q80" s="69"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="131"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="7">
         <v>8</v>
       </c>
@@ -4282,18 +4343,18 @@
         <v>7</v>
       </c>
       <c r="E81" s="48"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="57"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="69"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B82" s="11">
@@ -4306,18 +4367,18 @@
         <v>8</v>
       </c>
       <c r="E82" s="48"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="57"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="68"/>
+      <c r="M82" s="68"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="69"/>
     </row>
     <row r="83" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="20"/>
@@ -4326,48 +4387,48 @@
       <c r="E83" s="23"/>
       <c r="F83" s="24"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="50"/>
-      <c r="Q83" s="51"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="66"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="132">
+      <c r="B84" s="50">
         <v>12</v>
       </c>
-      <c r="C84" s="133">
+      <c r="C84" s="51">
         <v>0</v>
       </c>
-      <c r="D84" s="134" t="s">
+      <c r="D84" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="E84" s="135" t="s">
+      <c r="E84" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F84" s="134" t="s">
+      <c r="F84" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="G84" s="150" t="s">
+      <c r="G84" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="H84" s="142" t="s">
+      <c r="H84" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="143"/>
-      <c r="J84" s="143"/>
-      <c r="K84" s="143"/>
-      <c r="L84" s="143"/>
-      <c r="M84" s="143"/>
-      <c r="N84" s="143"/>
-      <c r="O84" s="143"/>
-      <c r="P84" s="143"/>
-      <c r="Q84" s="144"/>
+      <c r="I84" s="115"/>
+      <c r="J84" s="115"/>
+      <c r="K84" s="115"/>
+      <c r="L84" s="115"/>
+      <c r="M84" s="115"/>
+      <c r="N84" s="115"/>
+      <c r="O84" s="115"/>
+      <c r="P84" s="115"/>
+      <c r="Q84" s="116"/>
     </row>
     <row r="85" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
@@ -4376,16 +4437,16 @@
       <c r="E85" s="23"/>
       <c r="F85" s="24"/>
       <c r="G85" s="25"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="50"/>
-      <c r="Q85" s="51"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="66"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B86" s="11">
@@ -4404,18 +4465,18 @@
       <c r="G86" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="55" t="s">
+      <c r="H86" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="57"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="69"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B87" s="41">
@@ -4430,93 +4491,93 @@
       <c r="E87" s="42"/>
       <c r="F87" s="30"/>
       <c r="G87" s="32"/>
-      <c r="H87" s="52" t="s">
+      <c r="H87" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="54"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="63"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
-      <c r="Q88" s="58"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="58"/>
-      <c r="O89" s="58"/>
-      <c r="P89" s="58"/>
-      <c r="Q89" s="58"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="58"/>
-      <c r="N90" s="58"/>
-      <c r="O90" s="58"/>
-      <c r="P90" s="58"/>
-      <c r="Q90" s="58"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
+      <c r="Q90" s="77"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="58"/>
-      <c r="N91" s="58"/>
-      <c r="O91" s="58"/>
-      <c r="P91" s="58"/>
-      <c r="Q91" s="58"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="77"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
+      <c r="Q91" s="77"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="58"/>
-      <c r="O92" s="58"/>
-      <c r="P92" s="58"/>
-      <c r="Q92" s="58"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="77"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
+      <c r="Q92" s="77"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B93" s="9"/>
@@ -4567,16 +4628,6 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="H83:Q83"/>
-    <mergeCell ref="H84:Q84"/>
-    <mergeCell ref="H64:Q64"/>
-    <mergeCell ref="H65:Q65"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="H57:Q57"/>
-    <mergeCell ref="H60:Q60"/>
-    <mergeCell ref="H61:Q61"/>
-    <mergeCell ref="H62:Q62"/>
-    <mergeCell ref="H63:Q63"/>
     <mergeCell ref="G73:G82"/>
     <mergeCell ref="F73:F82"/>
     <mergeCell ref="F68:F71"/>
@@ -4589,6 +4640,18 @@
     <mergeCell ref="H47:Q47"/>
     <mergeCell ref="H48:Q48"/>
     <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H68:Q68"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="H64:Q64"/>
+    <mergeCell ref="H65:Q65"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="H57:Q57"/>
+    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="H61:Q61"/>
+    <mergeCell ref="H62:Q62"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F24:G24"/>
@@ -4613,22 +4676,6 @@
     <mergeCell ref="H32:Q32"/>
     <mergeCell ref="H21:Q21"/>
     <mergeCell ref="H22:Q22"/>
-    <mergeCell ref="H23:Q23"/>
-    <mergeCell ref="H24:Q24"/>
-    <mergeCell ref="H25:Q25"/>
-    <mergeCell ref="H26:Q26"/>
-    <mergeCell ref="H27:Q27"/>
-    <mergeCell ref="H28:Q28"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="H20:Q20"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="G92:Q92"/>
@@ -4648,11 +4695,11 @@
     <mergeCell ref="H44:Q44"/>
     <mergeCell ref="H58:Q58"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H68:Q68"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="H23:Q23"/>
+    <mergeCell ref="H24:Q24"/>
+    <mergeCell ref="H25:Q25"/>
+    <mergeCell ref="H26:Q26"/>
+    <mergeCell ref="H27:Q27"/>
     <mergeCell ref="H45:Q45"/>
     <mergeCell ref="H51:Q51"/>
     <mergeCell ref="H53:Q53"/>
@@ -4662,6 +4709,20 @@
     <mergeCell ref="H9:Q9"/>
     <mergeCell ref="H10:Q10"/>
     <mergeCell ref="H85:Q85"/>
+    <mergeCell ref="H11:Q11"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H28:Q28"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="H20:Q20"/>
+    <mergeCell ref="H83:Q83"/>
+    <mergeCell ref="H84:Q84"/>
+    <mergeCell ref="H63:Q63"/>
     <mergeCell ref="H87:Q87"/>
     <mergeCell ref="H50:Q50"/>
     <mergeCell ref="H77:Q77"/>
@@ -4681,6 +4742,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4701,812 +4763,812 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="116"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
     </row>
     <row r="4" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="124">
         <v>0</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="114"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="132"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="104"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="118"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="104"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="118"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="104"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="60"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="118"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="104"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="57"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="108">
+      <c r="C9" s="125"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="126">
         <v>0</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="109"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="127"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="104"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="118"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="104"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="60"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="118"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="104"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="118"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="104"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="118"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="112" t="s">
+      <c r="C14" s="125"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="109"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="127"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="104"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="118"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="104"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="60"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="118"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="104"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="118"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B18" s="104"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="118"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="108">
+      <c r="C19" s="125"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="126">
         <v>0</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="109"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="127"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="60"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="118"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="104"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="118"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="104"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="118"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="104"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="60"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="118"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="108">
+      <c r="C24" s="125"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="126">
         <v>0</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="109"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="127"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="104"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="60"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="118"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="104"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="60"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="118"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="104"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="60"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="118"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="104"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="60"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="118"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="108">
+      <c r="C29" s="125"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="126">
         <v>0</v>
       </c>
-      <c r="F29" s="105" t="s">
+      <c r="F29" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="109"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="127"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B30" s="104"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="118"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="104"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="60"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="118"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="104"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="118"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B33" s="104"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="60"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="118"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="108">
+      <c r="C34" s="125"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="126">
         <v>0</v>
       </c>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="109"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="127"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B35" s="104"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="60"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="118"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="104"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="60"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="118"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B37" s="104"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="60"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="118"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B38" s="104"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="60"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="118"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="108">
+      <c r="C39" s="125"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="126">
         <v>0</v>
       </c>
-      <c r="F39" s="105" t="s">
+      <c r="F39" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="109"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="127"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="104"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="60"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="118"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="104"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="60"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="118"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B42" s="104"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="60"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="118"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B43" s="104"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="60"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="118"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="101">
+      <c r="C44" s="125"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="119">
         <v>0</v>
       </c>
-      <c r="F44" s="105" t="s">
+      <c r="F44" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="57"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="69"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B45" s="104"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="105"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="123"/>
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -5519,68 +5581,68 @@
       <c r="P45" s="28"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B46" s="104"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="57"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="69"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B47" s="104"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="69"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="101">
+      <c r="C48" s="125"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="119">
         <v>0</v>
       </c>
-      <c r="F48" s="105" t="s">
+      <c r="F48" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="57"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="69"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B49" s="104"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="105"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="123"/>
       <c r="G49" s="26"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -5593,68 +5655,68 @@
       <c r="P49" s="28"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B50" s="104"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="57"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="69"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B51" s="104"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="69"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="107"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="66">
+      <c r="C52" s="125"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="104">
         <v>0</v>
       </c>
-      <c r="F52" s="105" t="s">
+      <c r="F52" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="69"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B53" s="104"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="105"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="123"/>
       <c r="G53" s="26"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -5667,68 +5729,68 @@
       <c r="P53" s="28"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B54" s="104"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="57"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="69"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B55" s="104"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="69"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="107"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="66">
+      <c r="C56" s="125"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="104">
         <v>0</v>
       </c>
-      <c r="F56" s="105" t="s">
+      <c r="F56" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="57"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="69"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B57" s="104"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="105"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="123"/>
       <c r="G57" s="26"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -5741,38 +5803,38 @@
       <c r="P57" s="28"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B58" s="104"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="57"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="69"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B59" s="104"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="57"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="69"/>
     </row>
     <row r="60" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="33"/>
@@ -5780,16 +5842,16 @@
       <c r="D60" s="21"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="51"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="66"/>
     </row>
     <row r="61" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="37" t="s">
@@ -5807,16 +5869,16 @@
       <c r="F61" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="120"/>
-      <c r="K61" s="120"/>
-      <c r="L61" s="120"/>
-      <c r="M61" s="120"/>
-      <c r="N61" s="120"/>
-      <c r="O61" s="120"/>
-      <c r="P61" s="121"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="138"/>
+      <c r="L61" s="138"/>
+      <c r="M61" s="138"/>
+      <c r="N61" s="138"/>
+      <c r="O61" s="138"/>
+      <c r="P61" s="139"/>
     </row>
     <row r="62" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="33"/>
@@ -5824,118 +5886,118 @@
       <c r="D62" s="21"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="117"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="117"/>
-      <c r="L62" s="117"/>
-      <c r="M62" s="117"/>
-      <c r="N62" s="117"/>
-      <c r="O62" s="117"/>
-      <c r="P62" s="118"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
+      <c r="N62" s="135"/>
+      <c r="O62" s="135"/>
+      <c r="P62" s="136"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B63" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="101">
+      <c r="C63" s="119">
         <v>10</v>
       </c>
       <c r="D63" s="7">
         <v>0</v>
       </c>
-      <c r="E63" s="101">
+      <c r="E63" s="119">
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="G63" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="60"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="117"/>
+      <c r="M63" s="117"/>
+      <c r="N63" s="117"/>
+      <c r="O63" s="117"/>
+      <c r="P63" s="118"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B64" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="101"/>
+      <c r="C64" s="119"/>
       <c r="D64" s="7">
         <v>1</v>
       </c>
-      <c r="E64" s="101"/>
+      <c r="E64" s="119"/>
       <c r="F64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="59" t="s">
+      <c r="G64" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="60"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="117"/>
+      <c r="M64" s="117"/>
+      <c r="N64" s="117"/>
+      <c r="O64" s="117"/>
+      <c r="P64" s="118"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="101"/>
+      <c r="C65" s="119"/>
       <c r="D65" s="7">
         <v>2</v>
       </c>
-      <c r="E65" s="101"/>
+      <c r="E65" s="119"/>
       <c r="F65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="60"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="117"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="117"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="117"/>
+      <c r="O65" s="117"/>
+      <c r="P65" s="118"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B66" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="101"/>
+      <c r="C66" s="119"/>
       <c r="D66" s="7">
         <v>3</v>
       </c>
-      <c r="E66" s="101"/>
+      <c r="E66" s="119"/>
       <c r="F66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G66" s="59" t="s">
+      <c r="G66" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="60"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="117"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="118"/>
     </row>
     <row r="67" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="33"/>
@@ -5943,232 +6005,232 @@
       <c r="D67" s="21"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="117"/>
-      <c r="O67" s="117"/>
-      <c r="P67" s="118"/>
+      <c r="G67" s="135"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="135"/>
+      <c r="J67" s="135"/>
+      <c r="K67" s="135"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
+      <c r="N67" s="135"/>
+      <c r="O67" s="135"/>
+      <c r="P67" s="136"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B68" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="101">
+      <c r="C68" s="119">
         <v>11</v>
       </c>
       <c r="D68" s="7">
         <v>0</v>
       </c>
-      <c r="E68" s="101">
+      <c r="E68" s="119">
         <v>0</v>
       </c>
-      <c r="F68" s="119" t="s">
+      <c r="F68" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="60"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="117"/>
+      <c r="O68" s="117"/>
+      <c r="P68" s="118"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B69" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="101"/>
+      <c r="C69" s="119"/>
       <c r="D69" s="7">
         <v>1</v>
       </c>
-      <c r="E69" s="101"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="60"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="117"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="118"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="101"/>
+      <c r="C70" s="119"/>
       <c r="D70" s="7">
         <v>2</v>
       </c>
-      <c r="E70" s="101"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="60"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="117"/>
+      <c r="I70" s="117"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="117"/>
+      <c r="L70" s="117"/>
+      <c r="M70" s="117"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="118"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="101"/>
+      <c r="C71" s="119"/>
       <c r="D71" s="7">
         <v>3</v>
       </c>
-      <c r="E71" s="101"/>
-      <c r="F71" s="119"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="60"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="117"/>
+      <c r="K71" s="117"/>
+      <c r="L71" s="117"/>
+      <c r="M71" s="117"/>
+      <c r="N71" s="117"/>
+      <c r="O71" s="117"/>
+      <c r="P71" s="118"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="101"/>
+      <c r="C72" s="119"/>
       <c r="D72" s="7">
         <v>4</v>
       </c>
-      <c r="E72" s="101"/>
-      <c r="F72" s="119"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="60"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="117"/>
+      <c r="I72" s="117"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="117"/>
+      <c r="L72" s="117"/>
+      <c r="M72" s="117"/>
+      <c r="N72" s="117"/>
+      <c r="O72" s="117"/>
+      <c r="P72" s="118"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B73" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="101"/>
+      <c r="C73" s="119"/>
       <c r="D73" s="7">
         <v>5</v>
       </c>
-      <c r="E73" s="101"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="60"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="118"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="101"/>
+      <c r="C74" s="119"/>
       <c r="D74" s="7">
         <v>6</v>
       </c>
-      <c r="E74" s="101"/>
-      <c r="F74" s="119"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="60"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="117"/>
+      <c r="I74" s="117"/>
+      <c r="J74" s="117"/>
+      <c r="K74" s="117"/>
+      <c r="L74" s="117"/>
+      <c r="M74" s="117"/>
+      <c r="N74" s="117"/>
+      <c r="O74" s="117"/>
+      <c r="P74" s="118"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="101"/>
+      <c r="C75" s="119"/>
       <c r="D75" s="7">
         <v>7</v>
       </c>
-      <c r="E75" s="101"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="60"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="117"/>
+      <c r="I75" s="117"/>
+      <c r="J75" s="117"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="117"/>
+      <c r="M75" s="117"/>
+      <c r="N75" s="117"/>
+      <c r="O75" s="117"/>
+      <c r="P75" s="118"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="101"/>
+      <c r="C76" s="119"/>
       <c r="D76" s="7">
         <v>8</v>
       </c>
-      <c r="E76" s="101"/>
-      <c r="F76" s="119"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="60"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="117"/>
+      <c r="J76" s="117"/>
+      <c r="K76" s="117"/>
+      <c r="L76" s="117"/>
+      <c r="M76" s="117"/>
+      <c r="N76" s="117"/>
+      <c r="O76" s="117"/>
+      <c r="P76" s="118"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B77" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="101"/>
+      <c r="C77" s="119"/>
       <c r="D77" s="7">
         <v>9</v>
       </c>
-      <c r="E77" s="101"/>
-      <c r="F77" s="119"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="60"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="117"/>
+      <c r="I77" s="117"/>
+      <c r="J77" s="117"/>
+      <c r="K77" s="117"/>
+      <c r="L77" s="117"/>
+      <c r="M77" s="117"/>
+      <c r="N77" s="117"/>
+      <c r="O77" s="117"/>
+      <c r="P77" s="118"/>
     </row>
     <row r="78" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="33"/>
@@ -6176,16 +6238,16 @@
       <c r="D78" s="21"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="117"/>
-      <c r="I78" s="117"/>
-      <c r="J78" s="117"/>
-      <c r="K78" s="117"/>
-      <c r="L78" s="117"/>
-      <c r="M78" s="117"/>
-      <c r="N78" s="117"/>
-      <c r="O78" s="117"/>
-      <c r="P78" s="118"/>
+      <c r="G78" s="135"/>
+      <c r="H78" s="135"/>
+      <c r="I78" s="135"/>
+      <c r="J78" s="135"/>
+      <c r="K78" s="135"/>
+      <c r="L78" s="135"/>
+      <c r="M78" s="135"/>
+      <c r="N78" s="135"/>
+      <c r="O78" s="135"/>
+      <c r="P78" s="136"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B79" s="34" t="s">
@@ -6203,16 +6265,16 @@
       <c r="F79" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="60"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="117"/>
+      <c r="I79" s="117"/>
+      <c r="J79" s="117"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="117"/>
+      <c r="M79" s="117"/>
+      <c r="N79" s="117"/>
+      <c r="O79" s="117"/>
+      <c r="P79" s="118"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="36" t="s">
@@ -6226,93 +6288,93 @@
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="32"/>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="54"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="63"/>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="77"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="58"/>
-      <c r="P83" s="58"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="58"/>
-      <c r="P85" s="58"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C86" s="9"/>
@@ -6511,14 +6573,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="C2" s="146"/>
+      <c r="D2" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="128"/>
+      <c r="E2" s="146"/>
     </row>
     <row r="3" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="18" t="s">
@@ -6535,68 +6597,68 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="128">
+      <c r="B4" s="146">
         <v>0</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="77" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="128">
+      <c r="B9" s="146">
         <v>1</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="147" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="128"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="128"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/レジストリ配置.xlsx
+++ b/レジストリ配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ソフトウェアデバッガ\VirtualArduino\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="2610" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
   <si>
     <t>EEPROM(101)</t>
   </si>
@@ -543,6 +548,14 @@
   </si>
   <si>
     <t>SPI_MODE0：0　SPI_CLOCK_DIV32：6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI.end()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIバスを無効にします。各ピンの設定は変更されません。 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1292,7 +1305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,6 +1489,177 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1485,251 +1669,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2216,7 +2238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2264,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q104"/>
+  <dimension ref="B2:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63:Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2281,52 +2303,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="103" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="83"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B3" s="74"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="89"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="11">
@@ -2339,20 +2361,20 @@
         <v>32</v>
       </c>
       <c r="E4" s="44"/>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="86"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="112"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
@@ -2365,20 +2387,20 @@
         <v>34</v>
       </c>
       <c r="E5" s="44"/>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
@@ -2393,24 +2415,24 @@
       <c r="E6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="78"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
@@ -2425,18 +2447,18 @@
       <c r="E7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="69"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
@@ -2451,18 +2473,18 @@
       <c r="E8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="69"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
@@ -2477,18 +2499,18 @@
       <c r="E9" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="78"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
@@ -2503,18 +2525,18 @@
       <c r="E10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="69"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
@@ -2529,18 +2551,18 @@
       <c r="E11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
@@ -2555,18 +2577,18 @@
       <c r="E12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="69"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
@@ -2581,18 +2603,18 @@
       <c r="E13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="69"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
@@ -2607,18 +2629,18 @@
       <c r="E14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="69"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="78"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
@@ -2633,18 +2655,18 @@
       <c r="E15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="69"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="78"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
@@ -2659,18 +2681,18 @@
       <c r="E16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="69"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="78"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
@@ -2685,18 +2707,18 @@
       <c r="E17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="69"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="78"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
@@ -2711,18 +2733,18 @@
       <c r="E18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="69"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="78"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
@@ -2737,18 +2759,18 @@
       <c r="E19" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="69"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="78"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
@@ -2763,18 +2785,18 @@
       <c r="E20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="69"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="11">
@@ -2789,18 +2811,18 @@
       <c r="E21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="69"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
@@ -2815,18 +2837,18 @@
       <c r="E22" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="69"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="78"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="11">
@@ -2841,18 +2863,18 @@
       <c r="E23" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="69"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="78"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="11">
@@ -2865,20 +2887,20 @@
         <v>32</v>
       </c>
       <c r="E24" s="47"/>
-      <c r="F24" s="91" t="s">
+      <c r="F24" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="69"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="78"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
@@ -2891,20 +2913,20 @@
         <v>34</v>
       </c>
       <c r="E25" s="47"/>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="78"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
@@ -2919,22 +2941,22 @@
       <c r="E26" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="98" t="s">
+      <c r="G26" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="69"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="78"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="11">
@@ -2949,18 +2971,18 @@
       <c r="E27" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="96"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="69"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="78"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
@@ -2975,18 +2997,18 @@
       <c r="E28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="96"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="69"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="11">
@@ -3001,18 +3023,18 @@
       <c r="E29" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="96"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="69"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="78"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
@@ -3027,18 +3049,18 @@
       <c r="E30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="96"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="69"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="78"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="11">
@@ -3053,18 +3075,18 @@
       <c r="E31" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="96"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="69"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="78"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32" s="11">
@@ -3079,18 +3101,18 @@
       <c r="E32" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="96"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="69"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="78"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33" s="11">
@@ -3105,18 +3127,18 @@
       <c r="E33" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="96"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="69"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="78"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34" s="11">
@@ -3131,18 +3153,18 @@
       <c r="E34" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="96"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="69"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="78"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="11">
@@ -3157,18 +3179,18 @@
       <c r="E35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="69"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="78"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B36" s="11">
@@ -3183,18 +3205,18 @@
       <c r="E36" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="96"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="69"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="78"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37" s="11">
@@ -3209,18 +3231,18 @@
       <c r="E37" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="96"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="69"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="78"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38" s="11">
@@ -3235,18 +3257,18 @@
       <c r="E38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="96"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="69"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="78"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39" s="11">
@@ -3261,18 +3283,18 @@
       <c r="E39" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="96"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="69"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="78"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="11">
@@ -3287,18 +3309,18 @@
       <c r="E40" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="96"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="69"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="78"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B41" s="11">
@@ -3313,18 +3335,18 @@
       <c r="E41" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="96"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="69"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="78"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B42" s="11">
@@ -3339,18 +3361,18 @@
       <c r="E42" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="96"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="69"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="78"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43" s="11">
@@ -3365,18 +3387,18 @@
       <c r="E43" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="69"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="78"/>
     </row>
     <row r="44" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="20"/>
@@ -3385,16 +3407,16 @@
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="66"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="75"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B45" s="11">
@@ -3415,18 +3437,18 @@
       <c r="G45" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="67" t="s">
+      <c r="H45" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="69"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="78"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B46" s="11">
@@ -3447,18 +3469,18 @@
       <c r="G46" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="67" t="s">
+      <c r="H46" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="69"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="78"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B47" s="11">
@@ -3473,22 +3495,22 @@
       <c r="E47" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="113">
+      <c r="F47" s="85">
         <v>0</v>
       </c>
-      <c r="G47" s="104" t="s">
+      <c r="G47" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="67"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="69"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="78"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48" s="11">
@@ -3503,18 +3525,18 @@
       <c r="E48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="96"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="69"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="78"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B49" s="11">
@@ -3529,18 +3551,18 @@
       <c r="E49" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="97"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="69"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="78"/>
     </row>
     <row r="50" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="20"/>
@@ -3549,16 +3571,16 @@
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="66"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="75"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51" s="11">
@@ -3579,18 +3601,18 @@
       <c r="G51" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="67" t="s">
+      <c r="H51" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="68"/>
-      <c r="Q51" s="69"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="78"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52" s="11">
@@ -3611,18 +3633,18 @@
       <c r="G52" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="67" t="s">
+      <c r="H52" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="69"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="78"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B53" s="11">
@@ -3637,22 +3659,22 @@
       <c r="E53" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="113">
+      <c r="F53" s="85">
         <v>0</v>
       </c>
-      <c r="G53" s="104" t="s">
+      <c r="G53" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="67"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="69"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="78"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54" s="11">
@@ -3667,18 +3689,18 @@
       <c r="E54" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="96"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="69"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="78"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55" s="11">
@@ -3693,18 +3715,18 @@
       <c r="E55" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="97"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="69"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="78"/>
     </row>
     <row r="56" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="20"/>
@@ -3713,16 +3735,16 @@
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="66"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="75"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57" s="11">
@@ -3743,16 +3765,16 @@
       <c r="G57" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="117"/>
-      <c r="O57" s="117"/>
-      <c r="P57" s="117"/>
-      <c r="Q57" s="118"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="92"/>
     </row>
     <row r="58" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20"/>
@@ -3761,16 +3783,16 @@
       <c r="E58" s="23"/>
       <c r="F58" s="24"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="66"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="75"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B59" s="50">
@@ -3787,18 +3809,18 @@
       </c>
       <c r="F59" s="58"/>
       <c r="G59" s="53"/>
-      <c r="H59" s="71" t="s">
+      <c r="H59" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="72"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="117"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60" s="50">
@@ -3819,18 +3841,18 @@
       <c r="G60" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="H60" s="114" t="s">
+      <c r="H60" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="115"/>
-      <c r="N60" s="115"/>
-      <c r="O60" s="115"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="116"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="90"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61" s="50">
@@ -3849,739 +3871,761 @@
       <c r="G61" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H61" s="114" t="s">
+      <c r="H61" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="116"/>
-    </row>
-    <row r="62" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="66"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B63" s="50">
-        <v>6</v>
-      </c>
-      <c r="C63" s="51">
-        <v>0</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="72"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="89"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="89"/>
+      <c r="P61" s="89"/>
+      <c r="Q61" s="90"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B62" s="50">
+        <v>5</v>
+      </c>
+      <c r="C62" s="51">
+        <v>3</v>
+      </c>
+      <c r="D62" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="53"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="63"/>
+    </row>
+    <row r="63" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="75"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B64" s="50">
         <v>6</v>
       </c>
       <c r="C64" s="51">
-        <v>1</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>114</v>
       </c>
       <c r="E64" s="53" t="s">
         <v>105</v>
       </c>
       <c r="F64" s="54"/>
-      <c r="G64" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="114"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="115"/>
-      <c r="O64" s="115"/>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="116"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="116"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="117"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B65" s="50">
         <v>6</v>
       </c>
       <c r="C65" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E65" s="53" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="H65" s="114"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="116"/>
+        <v>111</v>
+      </c>
+      <c r="H65" s="88"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="90"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B66" s="50">
         <v>6</v>
       </c>
       <c r="C66" s="51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E66" s="53" t="s">
         <v>105</v>
       </c>
       <c r="F66" s="54"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="115"/>
-      <c r="O66" s="115"/>
-      <c r="P66" s="115"/>
-      <c r="Q66" s="116"/>
-    </row>
-    <row r="67" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="66"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B68" s="11">
-        <v>10</v>
-      </c>
-      <c r="C68" s="9">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="104">
-        <v>0</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H68" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
-      <c r="Q68" s="69"/>
+      <c r="G66" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="H66" s="88"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="90"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B67" s="50">
+        <v>6</v>
+      </c>
+      <c r="C67" s="51">
+        <v>3</v>
+      </c>
+      <c r="D67" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="54"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="90"/>
+    </row>
+    <row r="68" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="75"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B69" s="11">
         <v>10</v>
       </c>
-      <c r="C69" s="7">
-        <v>1</v>
+      <c r="C69" s="9">
+        <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E69" s="47"/>
-      <c r="F69" s="105"/>
+      <c r="F69" s="70">
+        <v>0</v>
+      </c>
       <c r="G69" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H69" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="I69" s="108"/>
-      <c r="J69" s="108"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="108"/>
-      <c r="M69" s="108"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="109"/>
+        <v>58</v>
+      </c>
+      <c r="H69" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="78"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B70" s="11">
         <v>10</v>
       </c>
       <c r="C70" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E70" s="47"/>
-      <c r="F70" s="105"/>
+      <c r="F70" s="71"/>
       <c r="G70" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="110"/>
-      <c r="I70" s="111"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="111"/>
-      <c r="O70" s="111"/>
-      <c r="P70" s="111"/>
-      <c r="Q70" s="112"/>
+        <v>61</v>
+      </c>
+      <c r="H70" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="81"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B71" s="11">
         <v>10</v>
       </c>
       <c r="C71" s="7">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="47"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" s="82"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="84"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B72" s="11">
+        <v>10</v>
+      </c>
+      <c r="C72" s="7">
         <v>3</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="47"/>
-      <c r="F71" s="106"/>
-      <c r="G71" s="17" t="s">
+      <c r="E72" s="47"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H71" s="67" t="s">
+      <c r="H72" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
-      <c r="Q71" s="69"/>
-    </row>
-    <row r="72" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
-      <c r="O72" s="65"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="66"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B73" s="11">
-        <v>11</v>
-      </c>
-      <c r="C73" s="7">
-        <v>0</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="98">
-        <v>0</v>
-      </c>
-      <c r="G73" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="H73" s="67"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="69"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="78"/>
+    </row>
+    <row r="73" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="73"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="75"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B74" s="11">
         <v>11</v>
       </c>
       <c r="C74" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="48"/>
+      <c r="F74" s="67">
         <v>0</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="69"/>
+      <c r="G74" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" s="76"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="77"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="77"/>
+      <c r="P74" s="77"/>
+      <c r="Q74" s="78"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B75" s="11">
         <v>11</v>
       </c>
       <c r="C75" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="48"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
-      <c r="Q75" s="69"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
+      <c r="M75" s="77"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="77"/>
+      <c r="Q75" s="78"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B76" s="11">
         <v>11</v>
       </c>
       <c r="C76" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="48"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="68"/>
-      <c r="O76" s="68"/>
-      <c r="P76" s="68"/>
-      <c r="Q76" s="69"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="77"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="77"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="78"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B77" s="11">
         <v>11</v>
       </c>
       <c r="C77" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="48"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="68"/>
-      <c r="M77" s="68"/>
-      <c r="N77" s="68"/>
-      <c r="O77" s="68"/>
-      <c r="P77" s="68"/>
-      <c r="Q77" s="69"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="78"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B78" s="11">
         <v>11</v>
       </c>
       <c r="C78" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="48"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="68"/>
-      <c r="N78" s="68"/>
-      <c r="O78" s="68"/>
-      <c r="P78" s="68"/>
-      <c r="Q78" s="69"/>
+      <c r="F78" s="68"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77"/>
+      <c r="Q78" s="78"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B79" s="11">
         <v>11</v>
       </c>
       <c r="C79" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" s="48"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
-      <c r="N79" s="68"/>
-      <c r="O79" s="68"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="69"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="77"/>
+      <c r="M79" s="77"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="77"/>
+      <c r="Q79" s="78"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B80" s="11">
         <v>11</v>
       </c>
       <c r="C80" s="7">
+        <v>6</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="48"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="78"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B81" s="11">
+        <v>11</v>
+      </c>
+      <c r="C81" s="7">
         <v>7</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
-      <c r="N80" s="68"/>
-      <c r="O80" s="68"/>
-      <c r="P80" s="68"/>
-      <c r="Q80" s="69"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B81" s="49"/>
-      <c r="C81" s="7">
+      <c r="E81" s="48"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="121"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="77"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="78"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B82" s="49"/>
+      <c r="C82" s="7">
         <v>8</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="68"/>
-      <c r="M81" s="68"/>
-      <c r="N81" s="68"/>
-      <c r="O81" s="68"/>
-      <c r="P81" s="68"/>
-      <c r="Q81" s="69"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="11">
+      <c r="E82" s="48"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="78"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B83" s="11">
         <v>11</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C83" s="7">
         <v>9</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="69"/>
-    </row>
-    <row r="83" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="20"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="66"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B84" s="50">
+      <c r="E83" s="48"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="78"/>
+    </row>
+    <row r="84" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="75"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B85" s="50">
         <v>12</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C85" s="51">
         <v>0</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D85" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="E84" s="53" t="s">
+      <c r="E85" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F84" s="52" t="s">
+      <c r="F85" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="G84" s="60" t="s">
+      <c r="G85" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="H84" s="114" t="s">
+      <c r="H85" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="115"/>
-      <c r="J84" s="115"/>
-      <c r="K84" s="115"/>
-      <c r="L84" s="115"/>
-      <c r="M84" s="115"/>
-      <c r="N84" s="115"/>
-      <c r="O84" s="115"/>
-      <c r="P84" s="115"/>
-      <c r="Q84" s="116"/>
-    </row>
-    <row r="85" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="65"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="65"/>
-      <c r="Q85" s="66"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B86" s="11">
+      <c r="I85" s="89"/>
+      <c r="J85" s="89"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="89"/>
+      <c r="M85" s="89"/>
+      <c r="N85" s="89"/>
+      <c r="O85" s="89"/>
+      <c r="P85" s="89"/>
+      <c r="Q85" s="90"/>
+    </row>
+    <row r="86" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="75"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B87" s="11">
         <v>98</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C87" s="7">
         <v>0</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E86" s="47"/>
-      <c r="F86" s="4" t="s">
+      <c r="E87" s="47"/>
+      <c r="F87" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G86" s="43" t="s">
+      <c r="G87" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="67" t="s">
+      <c r="H87" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="69"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="41">
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="78"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B88" s="41">
         <v>99</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C88" s="31">
         <v>0</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D88" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="61" t="s">
+      <c r="E88" s="42"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
-      <c r="O87" s="62"/>
-      <c r="P87" s="62"/>
-      <c r="Q87" s="63"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="77"/>
-      <c r="O88" s="77"/>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="77"/>
+      <c r="I88" s="119"/>
+      <c r="J88" s="119"/>
+      <c r="K88" s="119"/>
+      <c r="L88" s="119"/>
+      <c r="M88" s="119"/>
+      <c r="N88" s="119"/>
+      <c r="O88" s="119"/>
+      <c r="P88" s="119"/>
+      <c r="Q88" s="120"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="105"/>
+      <c r="I89" s="105"/>
+      <c r="J89" s="105"/>
+      <c r="K89" s="105"/>
+      <c r="L89" s="105"/>
+      <c r="M89" s="105"/>
+      <c r="N89" s="105"/>
+      <c r="O89" s="105"/>
+      <c r="P89" s="105"/>
+      <c r="Q89" s="105"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
-      <c r="M90" s="77"/>
-      <c r="N90" s="77"/>
-      <c r="O90" s="77"/>
-      <c r="P90" s="77"/>
-      <c r="Q90" s="77"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="105"/>
+      <c r="J90" s="105"/>
+      <c r="K90" s="105"/>
+      <c r="L90" s="105"/>
+      <c r="M90" s="105"/>
+      <c r="N90" s="105"/>
+      <c r="O90" s="105"/>
+      <c r="P90" s="105"/>
+      <c r="Q90" s="105"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="77"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="105"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="77"/>
-      <c r="P92" s="77"/>
-      <c r="Q92" s="77"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="105"/>
+      <c r="J92" s="105"/>
+      <c r="K92" s="105"/>
+      <c r="L92" s="105"/>
+      <c r="M92" s="105"/>
+      <c r="N92" s="105"/>
+      <c r="O92" s="105"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="105"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
+      <c r="M93" s="105"/>
+      <c r="N93" s="105"/>
+      <c r="O93" s="105"/>
+      <c r="P93" s="105"/>
+      <c r="Q93" s="105"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B94" s="9"/>
@@ -4600,10 +4644,10 @@
       <c r="C97" s="9"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B98" s="9"/>
       <c r="C98" s="9"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B99" s="9"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.15">
@@ -4626,32 +4670,74 @@
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
     </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="F73:F82"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="H67:Q67"/>
-    <mergeCell ref="H71:Q71"/>
-    <mergeCell ref="H69:Q70"/>
+    <mergeCell ref="H88:Q88"/>
+    <mergeCell ref="H50:Q50"/>
+    <mergeCell ref="H78:Q78"/>
+    <mergeCell ref="H79:Q79"/>
+    <mergeCell ref="H80:Q80"/>
+    <mergeCell ref="H81:Q81"/>
     <mergeCell ref="H82:Q82"/>
-    <mergeCell ref="H46:Q46"/>
-    <mergeCell ref="H52:Q52"/>
-    <mergeCell ref="H47:Q47"/>
-    <mergeCell ref="H48:Q48"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H68:Q68"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="H73:Q73"/>
+    <mergeCell ref="H74:Q74"/>
+    <mergeCell ref="H75:Q75"/>
+    <mergeCell ref="H76:Q76"/>
+    <mergeCell ref="H77:Q77"/>
+    <mergeCell ref="H59:Q59"/>
+    <mergeCell ref="H87:Q87"/>
+    <mergeCell ref="H56:Q56"/>
+    <mergeCell ref="H45:Q45"/>
+    <mergeCell ref="H51:Q51"/>
+    <mergeCell ref="H53:Q53"/>
+    <mergeCell ref="H54:Q54"/>
+    <mergeCell ref="H55:Q55"/>
+    <mergeCell ref="H8:Q8"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H86:Q86"/>
+    <mergeCell ref="H11:Q11"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H28:Q28"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="H20:Q20"/>
+    <mergeCell ref="H84:Q84"/>
+    <mergeCell ref="H85:Q85"/>
     <mergeCell ref="H64:Q64"/>
-    <mergeCell ref="H65:Q65"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="H57:Q57"/>
-    <mergeCell ref="H60:Q60"/>
-    <mergeCell ref="H61:Q61"/>
-    <mergeCell ref="H62:Q62"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G93:Q93"/>
+    <mergeCell ref="G89:Q89"/>
+    <mergeCell ref="G90:Q90"/>
+    <mergeCell ref="G91:Q91"/>
+    <mergeCell ref="G92:Q92"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:G23"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="H44:Q44"/>
+    <mergeCell ref="H58:Q58"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H23:Q23"/>
+    <mergeCell ref="H24:Q24"/>
+    <mergeCell ref="H25:Q25"/>
+    <mergeCell ref="H26:Q26"/>
+    <mergeCell ref="H27:Q27"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F24:G24"/>
@@ -4676,68 +4762,30 @@
     <mergeCell ref="H32:Q32"/>
     <mergeCell ref="H21:Q21"/>
     <mergeCell ref="H22:Q22"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G92:Q92"/>
-    <mergeCell ref="G88:Q88"/>
-    <mergeCell ref="G89:Q89"/>
-    <mergeCell ref="G90:Q90"/>
-    <mergeCell ref="G91:Q91"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:G23"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="H3:Q3"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="H44:Q44"/>
-    <mergeCell ref="H58:Q58"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H23:Q23"/>
-    <mergeCell ref="H24:Q24"/>
-    <mergeCell ref="H25:Q25"/>
-    <mergeCell ref="H26:Q26"/>
-    <mergeCell ref="H27:Q27"/>
-    <mergeCell ref="H45:Q45"/>
-    <mergeCell ref="H51:Q51"/>
-    <mergeCell ref="H53:Q53"/>
-    <mergeCell ref="H54:Q54"/>
-    <mergeCell ref="H55:Q55"/>
-    <mergeCell ref="H8:Q8"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H85:Q85"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H28:Q28"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="H20:Q20"/>
+    <mergeCell ref="G74:G83"/>
+    <mergeCell ref="F74:F83"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="H68:Q68"/>
+    <mergeCell ref="H72:Q72"/>
+    <mergeCell ref="H70:Q71"/>
     <mergeCell ref="H83:Q83"/>
-    <mergeCell ref="H84:Q84"/>
+    <mergeCell ref="H46:Q46"/>
+    <mergeCell ref="H52:Q52"/>
+    <mergeCell ref="H47:Q47"/>
+    <mergeCell ref="H48:Q48"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H69:Q69"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="H65:Q65"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="H67:Q67"/>
+    <mergeCell ref="H57:Q57"/>
+    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="H61:Q61"/>
     <mergeCell ref="H63:Q63"/>
-    <mergeCell ref="H87:Q87"/>
-    <mergeCell ref="H50:Q50"/>
-    <mergeCell ref="H77:Q77"/>
-    <mergeCell ref="H78:Q78"/>
-    <mergeCell ref="H79:Q79"/>
-    <mergeCell ref="H80:Q80"/>
-    <mergeCell ref="H81:Q81"/>
-    <mergeCell ref="H72:Q72"/>
-    <mergeCell ref="H73:Q73"/>
-    <mergeCell ref="H74:Q74"/>
-    <mergeCell ref="H75:Q75"/>
-    <mergeCell ref="H76:Q76"/>
-    <mergeCell ref="H59:Q59"/>
-    <mergeCell ref="H86:Q86"/>
-    <mergeCell ref="H56:Q56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4763,812 +4811,812 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="134"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
     </row>
     <row r="4" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="147">
         <v>0</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="132"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="144"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="122"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="92"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="122"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="118"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="122"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="118"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="92"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="126">
+      <c r="C9" s="148"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="139">
         <v>0</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="F9" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="127"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="134"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="122"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="92"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="122"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="118"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="122"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="118"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="122"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="118"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="130" t="s">
+      <c r="C14" s="148"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F14" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="127"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="134"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="122"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="118"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="122"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="118"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="122"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="118"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B18" s="122"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="118"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="92"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="126">
+      <c r="C19" s="148"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="139">
         <v>0</v>
       </c>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="127"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="134"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="118"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="118"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="122"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="118"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="92"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="122"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="118"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="92"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="126">
+      <c r="C24" s="148"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="139">
         <v>0</v>
       </c>
-      <c r="F24" s="123" t="s">
+      <c r="F24" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="127"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="122"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="118"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="92"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="122"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="118"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="92"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="122"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="118"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="92"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="122"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="118"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="92"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="126">
+      <c r="C29" s="148"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="139">
         <v>0</v>
       </c>
-      <c r="F29" s="123" t="s">
+      <c r="F29" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="127"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="134"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B30" s="122"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="118"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="92"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="122"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="118"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="92"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="122"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="118"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="92"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B33" s="122"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="126">
+      <c r="C34" s="148"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="139">
         <v>0</v>
       </c>
-      <c r="F34" s="123" t="s">
+      <c r="F34" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="127"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="133"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="133"/>
+      <c r="O34" s="133"/>
+      <c r="P34" s="134"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B35" s="122"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="92"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="122"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="118"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="92"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B37" s="122"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="118"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="92"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B38" s="122"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="118"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="92"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="126">
+      <c r="C39" s="148"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="139">
         <v>0</v>
       </c>
-      <c r="F39" s="123" t="s">
+      <c r="F39" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="127"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="134"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="122"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="118"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="92"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="122"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="118"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="92"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B42" s="122"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="118"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="92"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B43" s="122"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="118"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="92"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B44" s="122" t="s">
+      <c r="B44" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="119">
+      <c r="C44" s="148"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="133">
         <v>0</v>
       </c>
-      <c r="F44" s="123" t="s">
+      <c r="F44" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="69"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="78"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B45" s="122"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="123"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="132"/>
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -5581,68 +5629,68 @@
       <c r="P45" s="28"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B46" s="122"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="69"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="78"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B47" s="122"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="69"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="78"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B48" s="122" t="s">
+      <c r="B48" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="119">
+      <c r="C48" s="148"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="133">
         <v>0</v>
       </c>
-      <c r="F48" s="123" t="s">
+      <c r="F48" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="69"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="78"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B49" s="122"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="123"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="132"/>
       <c r="G49" s="26"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -5655,68 +5703,68 @@
       <c r="P49" s="28"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B50" s="122"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="69"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="78"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B51" s="122"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="69"/>
+      <c r="B51" s="135"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="78"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="125"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="104">
+      <c r="C52" s="148"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="70">
         <v>0</v>
       </c>
-      <c r="F52" s="123" t="s">
+      <c r="F52" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="69"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="78"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B53" s="122"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="123"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="132"/>
       <c r="G53" s="26"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -5729,68 +5777,68 @@
       <c r="P53" s="28"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B54" s="122"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="69"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="78"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B55" s="122"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="69"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="91"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="78"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B56" s="122" t="s">
+      <c r="B56" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="125"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="104">
+      <c r="C56" s="148"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="70">
         <v>0</v>
       </c>
-      <c r="F56" s="123" t="s">
+      <c r="F56" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="69"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="78"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B57" s="122"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="123"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="132"/>
       <c r="G57" s="26"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -5803,38 +5851,38 @@
       <c r="P57" s="28"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B58" s="122"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="69"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="78"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B59" s="122"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="69"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="78"/>
     </row>
     <row r="60" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="33"/>
@@ -5842,16 +5890,16 @@
       <c r="D60" s="21"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="66"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="75"/>
     </row>
     <row r="61" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="37" t="s">
@@ -5869,16 +5917,16 @@
       <c r="F61" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="138"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="138"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="138"/>
-      <c r="L61" s="138"/>
-      <c r="M61" s="138"/>
-      <c r="N61" s="138"/>
-      <c r="O61" s="138"/>
-      <c r="P61" s="139"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="123"/>
     </row>
     <row r="62" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="33"/>
@@ -5886,118 +5934,118 @@
       <c r="D62" s="21"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="135"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="136"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="125"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B63" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="119">
+      <c r="C63" s="133">
         <v>10</v>
       </c>
       <c r="D63" s="7">
         <v>0</v>
       </c>
-      <c r="E63" s="119">
+      <c r="E63" s="133">
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="117" t="s">
+      <c r="G63" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="118"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="92"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B64" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="119"/>
+      <c r="C64" s="133"/>
       <c r="D64" s="7">
         <v>1</v>
       </c>
-      <c r="E64" s="119"/>
+      <c r="E64" s="133"/>
       <c r="F64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="117" t="s">
+      <c r="G64" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="118"/>
+      <c r="H64" s="91"/>
+      <c r="I64" s="91"/>
+      <c r="J64" s="91"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="91"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="92"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="119"/>
+      <c r="C65" s="133"/>
       <c r="D65" s="7">
         <v>2</v>
       </c>
-      <c r="E65" s="119"/>
+      <c r="E65" s="133"/>
       <c r="F65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="117"/>
-      <c r="K65" s="117"/>
-      <c r="L65" s="117"/>
-      <c r="M65" s="117"/>
-      <c r="N65" s="117"/>
-      <c r="O65" s="117"/>
-      <c r="P65" s="118"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="92"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B66" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="119"/>
+      <c r="C66" s="133"/>
       <c r="D66" s="7">
         <v>3</v>
       </c>
-      <c r="E66" s="119"/>
+      <c r="E66" s="133"/>
       <c r="F66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G66" s="117" t="s">
+      <c r="G66" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="117"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="118"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="91"/>
+      <c r="P66" s="92"/>
     </row>
     <row r="67" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="33"/>
@@ -6005,232 +6053,232 @@
       <c r="D67" s="21"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="135"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="135"/>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
-      <c r="N67" s="135"/>
-      <c r="O67" s="135"/>
-      <c r="P67" s="136"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="124"/>
+      <c r="N67" s="124"/>
+      <c r="O67" s="124"/>
+      <c r="P67" s="125"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B68" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="119">
+      <c r="C68" s="133">
         <v>11</v>
       </c>
       <c r="D68" s="7">
         <v>0</v>
       </c>
-      <c r="E68" s="119">
+      <c r="E68" s="133">
         <v>0</v>
       </c>
-      <c r="F68" s="137" t="s">
+      <c r="F68" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="117"/>
-      <c r="O68" s="117"/>
-      <c r="P68" s="118"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="91"/>
+      <c r="N68" s="91"/>
+      <c r="O68" s="91"/>
+      <c r="P68" s="92"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B69" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="119"/>
+      <c r="C69" s="133"/>
       <c r="D69" s="7">
         <v>1</v>
       </c>
-      <c r="E69" s="119"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117"/>
-      <c r="J69" s="117"/>
-      <c r="K69" s="117"/>
-      <c r="L69" s="117"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="118"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="91"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="91"/>
+      <c r="P69" s="92"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="119"/>
+      <c r="C70" s="133"/>
       <c r="D70" s="7">
         <v>2</v>
       </c>
-      <c r="E70" s="119"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="117"/>
-      <c r="L70" s="117"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="118"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="92"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="119"/>
+      <c r="C71" s="133"/>
       <c r="D71" s="7">
         <v>3</v>
       </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="117"/>
-      <c r="K71" s="117"/>
-      <c r="L71" s="117"/>
-      <c r="M71" s="117"/>
-      <c r="N71" s="117"/>
-      <c r="O71" s="117"/>
-      <c r="P71" s="118"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="91"/>
+      <c r="N71" s="91"/>
+      <c r="O71" s="91"/>
+      <c r="P71" s="92"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="119"/>
+      <c r="C72" s="133"/>
       <c r="D72" s="7">
         <v>4</v>
       </c>
-      <c r="E72" s="119"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
-      <c r="I72" s="117"/>
-      <c r="J72" s="117"/>
-      <c r="K72" s="117"/>
-      <c r="L72" s="117"/>
-      <c r="M72" s="117"/>
-      <c r="N72" s="117"/>
-      <c r="O72" s="117"/>
-      <c r="P72" s="118"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="92"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B73" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="119"/>
+      <c r="C73" s="133"/>
       <c r="D73" s="7">
         <v>5</v>
       </c>
-      <c r="E73" s="119"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="118"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="91"/>
+      <c r="P73" s="92"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="119"/>
+      <c r="C74" s="133"/>
       <c r="D74" s="7">
         <v>6</v>
       </c>
-      <c r="E74" s="119"/>
-      <c r="F74" s="137"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="117"/>
-      <c r="I74" s="117"/>
-      <c r="J74" s="117"/>
-      <c r="K74" s="117"/>
-      <c r="L74" s="117"/>
-      <c r="M74" s="117"/>
-      <c r="N74" s="117"/>
-      <c r="O74" s="117"/>
-      <c r="P74" s="118"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="92"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="119"/>
+      <c r="C75" s="133"/>
       <c r="D75" s="7">
         <v>7</v>
       </c>
-      <c r="E75" s="119"/>
-      <c r="F75" s="137"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="117"/>
-      <c r="J75" s="117"/>
-      <c r="K75" s="117"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="117"/>
-      <c r="N75" s="117"/>
-      <c r="O75" s="117"/>
-      <c r="P75" s="118"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="91"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="91"/>
+      <c r="M75" s="91"/>
+      <c r="N75" s="91"/>
+      <c r="O75" s="91"/>
+      <c r="P75" s="92"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="119"/>
+      <c r="C76" s="133"/>
       <c r="D76" s="7">
         <v>8</v>
       </c>
-      <c r="E76" s="119"/>
-      <c r="F76" s="137"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
-      <c r="J76" s="117"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="117"/>
-      <c r="O76" s="117"/>
-      <c r="P76" s="118"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="91"/>
+      <c r="P76" s="92"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B77" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="119"/>
+      <c r="C77" s="133"/>
       <c r="D77" s="7">
         <v>9</v>
       </c>
-      <c r="E77" s="119"/>
-      <c r="F77" s="137"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
-      <c r="L77" s="117"/>
-      <c r="M77" s="117"/>
-      <c r="N77" s="117"/>
-      <c r="O77" s="117"/>
-      <c r="P77" s="118"/>
+      <c r="E77" s="133"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="91"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="91"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
+      <c r="O77" s="91"/>
+      <c r="P77" s="92"/>
     </row>
     <row r="78" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="33"/>
@@ -6238,16 +6286,16 @@
       <c r="D78" s="21"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="135"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="135"/>
-      <c r="J78" s="135"/>
-      <c r="K78" s="135"/>
-      <c r="L78" s="135"/>
-      <c r="M78" s="135"/>
-      <c r="N78" s="135"/>
-      <c r="O78" s="135"/>
-      <c r="P78" s="136"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="124"/>
+      <c r="P78" s="125"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B79" s="34" t="s">
@@ -6265,16 +6313,16 @@
       <c r="F79" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G79" s="117"/>
-      <c r="H79" s="117"/>
-      <c r="I79" s="117"/>
-      <c r="J79" s="117"/>
-      <c r="K79" s="117"/>
-      <c r="L79" s="117"/>
-      <c r="M79" s="117"/>
-      <c r="N79" s="117"/>
-      <c r="O79" s="117"/>
-      <c r="P79" s="118"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="91"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
+      <c r="P79" s="92"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="36" t="s">
@@ -6288,93 +6336,93 @@
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="32"/>
-      <c r="G80" s="61" t="s">
+      <c r="G80" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
-      <c r="N80" s="62"/>
-      <c r="O80" s="62"/>
-      <c r="P80" s="63"/>
+      <c r="H80" s="119"/>
+      <c r="I80" s="119"/>
+      <c r="J80" s="119"/>
+      <c r="K80" s="119"/>
+      <c r="L80" s="119"/>
+      <c r="M80" s="119"/>
+      <c r="N80" s="119"/>
+      <c r="O80" s="119"/>
+      <c r="P80" s="120"/>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="77"/>
-      <c r="N81" s="77"/>
-      <c r="O81" s="77"/>
-      <c r="P81" s="77"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="105"/>
+      <c r="M81" s="105"/>
+      <c r="N81" s="105"/>
+      <c r="O81" s="105"/>
+      <c r="P81" s="105"/>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="77"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="105"/>
+      <c r="P82" s="105"/>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="77"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="105"/>
+      <c r="L83" s="105"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="105"/>
+      <c r="P83" s="105"/>
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="77"/>
-      <c r="P84" s="77"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="105"/>
+      <c r="P84" s="105"/>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="77"/>
-      <c r="N85" s="77"/>
-      <c r="O85" s="77"/>
-      <c r="P85" s="77"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="105"/>
+      <c r="K85" s="105"/>
+      <c r="L85" s="105"/>
+      <c r="M85" s="105"/>
+      <c r="N85" s="105"/>
+      <c r="O85" s="105"/>
+      <c r="P85" s="105"/>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C86" s="9"/>
@@ -6426,6 +6474,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D4:D59"/>
+    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="C4:C59"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="G32:P32"/>
+    <mergeCell ref="G33:P33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:P29"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="G5:P5"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="G25:P25"/>
+    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="G36:P36"/>
+    <mergeCell ref="G37:P37"/>
+    <mergeCell ref="G38:P38"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="G11:P11"/>
+    <mergeCell ref="G12:P12"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="F85:P85"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="G75:P75"/>
+    <mergeCell ref="G76:P76"/>
+    <mergeCell ref="G77:P77"/>
+    <mergeCell ref="G78:P78"/>
+    <mergeCell ref="G80:P80"/>
+    <mergeCell ref="F81:P81"/>
+    <mergeCell ref="G67:P67"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="F68:F77"/>
+    <mergeCell ref="G68:P68"/>
+    <mergeCell ref="G69:P69"/>
+    <mergeCell ref="G70:P70"/>
+    <mergeCell ref="G43:P43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:P39"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="G63:P63"/>
+    <mergeCell ref="G64:P65"/>
+    <mergeCell ref="G66:P66"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="F82:P82"/>
+    <mergeCell ref="F83:P83"/>
+    <mergeCell ref="F84:P84"/>
+    <mergeCell ref="G40:P40"/>
+    <mergeCell ref="G41:P41"/>
+    <mergeCell ref="G42:P42"/>
+    <mergeCell ref="G79:P79"/>
+    <mergeCell ref="G58:P58"/>
+    <mergeCell ref="G59:P59"/>
+    <mergeCell ref="G47:P47"/>
+    <mergeCell ref="G48:P48"/>
+    <mergeCell ref="G50:P50"/>
+    <mergeCell ref="G51:P51"/>
+    <mergeCell ref="G52:P52"/>
+    <mergeCell ref="G54:P54"/>
+    <mergeCell ref="G55:P55"/>
+    <mergeCell ref="G56:P56"/>
+    <mergeCell ref="G71:P71"/>
     <mergeCell ref="G72:P72"/>
     <mergeCell ref="G73:P73"/>
     <mergeCell ref="G74:P74"/>
@@ -6450,108 +6600,6 @@
     <mergeCell ref="G18:P18"/>
     <mergeCell ref="G6:P6"/>
     <mergeCell ref="G7:P7"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="G63:P63"/>
-    <mergeCell ref="G64:P65"/>
-    <mergeCell ref="G66:P66"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="G23:P23"/>
-    <mergeCell ref="F82:P82"/>
-    <mergeCell ref="F83:P83"/>
-    <mergeCell ref="F84:P84"/>
-    <mergeCell ref="G40:P40"/>
-    <mergeCell ref="G41:P41"/>
-    <mergeCell ref="G42:P42"/>
-    <mergeCell ref="G79:P79"/>
-    <mergeCell ref="G58:P58"/>
-    <mergeCell ref="G59:P59"/>
-    <mergeCell ref="G47:P47"/>
-    <mergeCell ref="G48:P48"/>
-    <mergeCell ref="G50:P50"/>
-    <mergeCell ref="G51:P51"/>
-    <mergeCell ref="G52:P52"/>
-    <mergeCell ref="G54:P54"/>
-    <mergeCell ref="G55:P55"/>
-    <mergeCell ref="G56:P56"/>
-    <mergeCell ref="G71:P71"/>
-    <mergeCell ref="F85:P85"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="G75:P75"/>
-    <mergeCell ref="G76:P76"/>
-    <mergeCell ref="G77:P77"/>
-    <mergeCell ref="G78:P78"/>
-    <mergeCell ref="G80:P80"/>
-    <mergeCell ref="F81:P81"/>
-    <mergeCell ref="G67:P67"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="F68:F77"/>
-    <mergeCell ref="G68:P68"/>
-    <mergeCell ref="G69:P69"/>
-    <mergeCell ref="G70:P70"/>
-    <mergeCell ref="G43:P43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:P39"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="G36:P36"/>
-    <mergeCell ref="G37:P37"/>
-    <mergeCell ref="G38:P38"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="G11:P11"/>
-    <mergeCell ref="G12:P12"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="G5:P5"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:P24"/>
-    <mergeCell ref="G25:P25"/>
-    <mergeCell ref="G26:P26"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D4:D59"/>
-    <mergeCell ref="C68:C77"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="C4:C59"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G31:P31"/>
-    <mergeCell ref="G32:P32"/>
-    <mergeCell ref="G33:P33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6573,14 +6621,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146" t="s">
+      <c r="C2" s="149"/>
+      <c r="D2" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="146"/>
+      <c r="E2" s="149"/>
     </row>
     <row r="3" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="18" t="s">
@@ -6597,68 +6645,68 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="146">
+      <c r="B4" s="149">
         <v>0</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="105" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="146">
+      <c r="B9" s="149">
         <v>1</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="150" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="146"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="146"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/レジストリ配置.xlsx
+++ b/レジストリ配置.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="6060" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ATMEGA328P" sheetId="1" r:id="rId1"/>
     <sheet name="ardu4" sheetId="2" r:id="rId2"/>
-    <sheet name="Version 0.9.1" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="oldVersion 0.9.1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
   <si>
     <t>EEPROM(101)</t>
   </si>
@@ -376,33 +375,6 @@
     <t>固定値orEEPROM値で初期化</t>
   </si>
   <si>
-    <t>アドレス</t>
-  </si>
-  <si>
-    <t>00000000b：デジタル＆入力
-00000001b：デジタル＆出力
-00000010b：アナログ＆入力
-00000011b：アナログ＆出力</t>
-  </si>
-  <si>
-    <t>プルアップ有無</t>
-  </si>
-  <si>
-    <t>ピン番号</t>
-  </si>
-  <si>
-    <t>00000000b：シフト＆入力（デジタル）
-00000001b：シフト＆出力（デジタル）</t>
-  </si>
-  <si>
-    <t>０１１１　　　　００００
-analog pin?　Latch</t>
-  </si>
-  <si>
-    <t>００００　　 ００００
-CLOCK　　DATA</t>
-  </si>
-  <si>
     <t>書込みでSPI.begin()を実行、読込みでは不定値を返す</t>
     <rPh sb="0" eb="2">
       <t>カキコ</t>
@@ -556,6 +528,50 @@
   </si>
   <si>
     <t xml:space="preserve">SPIバスを無効にします。各ピンの設定は変更されません。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wire.requestFrom( , )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wire.read()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Req</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Res</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ（下位バイト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ（上位バイト）</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ数はModbusの通信仕様による</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1305,7 +1321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1514,144 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,15 +1661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,24 +1670,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1564,113 +1691,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1678,12 +1760,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1702,62 +1778,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2286,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q105"/>
+  <dimension ref="B2:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63:Q63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2303,52 +2325,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="84" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="111"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="92"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B3" s="102"/>
-      <c r="C3" s="104"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="115"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="11">
@@ -2374,7 +2396,7 @@
       <c r="N4" s="94"/>
       <c r="O4" s="94"/>
       <c r="P4" s="94"/>
-      <c r="Q4" s="112"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
@@ -2387,20 +2409,20 @@
         <v>34</v>
       </c>
       <c r="E5" s="44"/>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B6" s="11">
@@ -2415,24 +2437,24 @@
       <c r="E6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="78"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="75"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
@@ -2447,18 +2469,18 @@
       <c r="E7" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="78"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="75"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
@@ -2473,18 +2495,18 @@
       <c r="E8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="78"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
@@ -2499,18 +2521,18 @@
       <c r="E9" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="78"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="75"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
@@ -2525,18 +2547,18 @@
       <c r="E10" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
@@ -2551,18 +2573,18 @@
       <c r="E11" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
@@ -2577,18 +2599,18 @@
       <c r="E12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
@@ -2603,18 +2625,18 @@
       <c r="E13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="78"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="75"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
@@ -2629,18 +2651,18 @@
       <c r="E14" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="78"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="75"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
@@ -2655,18 +2677,18 @@
       <c r="E15" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
@@ -2681,18 +2703,18 @@
       <c r="E16" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="78"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
@@ -2707,18 +2729,18 @@
       <c r="E17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="78"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
@@ -2733,18 +2755,18 @@
       <c r="E18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="78"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
@@ -2759,18 +2781,18 @@
       <c r="E19" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="78"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
@@ -2785,18 +2807,18 @@
       <c r="E20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="78"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21" s="11">
@@ -2811,18 +2833,18 @@
       <c r="E21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="78"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="75"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
@@ -2837,18 +2859,18 @@
       <c r="E22" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="78"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="11">
@@ -2863,18 +2885,18 @@
       <c r="E23" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="78"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="11">
@@ -2887,20 +2909,20 @@
         <v>32</v>
       </c>
       <c r="E24" s="47"/>
-      <c r="F24" s="96" t="s">
+      <c r="F24" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="96"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="78"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="75"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
@@ -2913,20 +2935,20 @@
         <v>34</v>
       </c>
       <c r="E25" s="47"/>
-      <c r="F25" s="96" t="s">
+      <c r="F25" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="96"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="78"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="75"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
@@ -2941,22 +2963,22 @@
       <c r="E26" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="100" t="s">
+      <c r="F26" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="78"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="75"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="11">
@@ -2971,18 +2993,18 @@
       <c r="E27" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="78"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="75"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
@@ -2997,18 +3019,18 @@
       <c r="E28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="78"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="75"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="11">
@@ -3023,18 +3045,18 @@
       <c r="E29" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="78"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="75"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
@@ -3049,18 +3071,18 @@
       <c r="E30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="78"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="75"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31" s="11">
@@ -3075,18 +3097,18 @@
       <c r="E31" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="78"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="75"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32" s="11">
@@ -3101,18 +3123,18 @@
       <c r="E32" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="78"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="75"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33" s="11">
@@ -3127,18 +3149,18 @@
       <c r="E33" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="78"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="75"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34" s="11">
@@ -3153,18 +3175,18 @@
       <c r="E34" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="78"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="11">
@@ -3179,18 +3201,18 @@
       <c r="E35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="78"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="75"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B36" s="11">
@@ -3205,18 +3227,18 @@
       <c r="E36" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="78"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="75"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37" s="11">
@@ -3231,18 +3253,18 @@
       <c r="E37" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="78"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="75"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38" s="11">
@@ -3257,18 +3279,18 @@
       <c r="E38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="78"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="75"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39" s="11">
@@ -3283,18 +3305,18 @@
       <c r="E39" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="78"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="75"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="11">
@@ -3309,18 +3331,18 @@
       <c r="E40" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="78"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="75"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B41" s="11">
@@ -3335,18 +3357,18 @@
       <c r="E41" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="78"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="75"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B42" s="11">
@@ -3361,18 +3383,18 @@
       <c r="E42" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="78"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="75"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43" s="11">
@@ -3387,18 +3409,18 @@
       <c r="E43" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="87"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="78"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="75"/>
     </row>
     <row r="44" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="20"/>
@@ -3407,16 +3429,16 @@
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="75"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="72"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B45" s="11">
@@ -3437,18 +3459,18 @@
       <c r="G45" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="76" t="s">
+      <c r="H45" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="78"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="75"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B46" s="11">
@@ -3469,18 +3491,18 @@
       <c r="G46" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="76" t="s">
+      <c r="H46" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="78"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="75"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B47" s="11">
@@ -3495,22 +3517,22 @@
       <c r="E47" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="85">
+      <c r="F47" s="122">
         <v>0</v>
       </c>
-      <c r="G47" s="70" t="s">
+      <c r="G47" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="76"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="78"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="75"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48" s="11">
@@ -3525,18 +3547,18 @@
       <c r="E48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="86"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="77"/>
-      <c r="Q48" s="78"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="75"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B49" s="11">
@@ -3551,18 +3573,18 @@
       <c r="E49" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="78"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="75"/>
     </row>
     <row r="50" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="20"/>
@@ -3571,16 +3593,16 @@
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="75"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="72"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51" s="11">
@@ -3601,18 +3623,18 @@
       <c r="G51" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="76" t="s">
+      <c r="H51" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="78"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="75"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52" s="11">
@@ -3633,18 +3655,18 @@
       <c r="G52" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="76" t="s">
+      <c r="H52" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="78"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="75"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B53" s="11">
@@ -3659,22 +3681,22 @@
       <c r="E53" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="85">
+      <c r="F53" s="122">
         <v>0</v>
       </c>
-      <c r="G53" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" s="76"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="78"/>
+      <c r="G53" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="73"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="75"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54" s="11">
@@ -3689,18 +3711,18 @@
       <c r="E54" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="78"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="75"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55" s="11">
@@ -3715,18 +3737,18 @@
       <c r="E55" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="87"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="78"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="75"/>
     </row>
     <row r="56" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="20"/>
@@ -3735,16 +3757,16 @@
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="75"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="72"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57" s="11">
@@ -3765,16 +3787,16 @@
       <c r="G57" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="92"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="123"/>
+      <c r="L57" s="123"/>
+      <c r="M57" s="123"/>
+      <c r="N57" s="123"/>
+      <c r="O57" s="123"/>
+      <c r="P57" s="123"/>
+      <c r="Q57" s="124"/>
     </row>
     <row r="58" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20"/>
@@ -3783,16 +3805,16 @@
       <c r="E58" s="23"/>
       <c r="F58" s="24"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="75"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="72"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B59" s="50">
@@ -3802,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F59" s="58"/>
       <c r="G59" s="53"/>
-      <c r="H59" s="116" t="s">
-        <v>104</v>
-      </c>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="116"/>
-      <c r="M59" s="116"/>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="117"/>
+      <c r="H59" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="78"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60" s="50">
@@ -3830,29 +3852,29 @@
         <v>1</v>
       </c>
       <c r="D60" s="56" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E60" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="F60" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="89"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="89"/>
-      <c r="Q60" s="90"/>
+      <c r="H60" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="81"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61" s="50">
@@ -3862,27 +3884,27 @@
         <v>2</v>
       </c>
       <c r="D61" s="56" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F61" s="54"/>
       <c r="G61" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="H61" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="89"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="89"/>
-      <c r="Q61" s="90"/>
+        <v>100</v>
+      </c>
+      <c r="H61" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="81"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B62" s="50">
@@ -3892,13 +3914,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="56" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E62" s="53"/>
       <c r="F62" s="54"/>
       <c r="G62" s="59"/>
       <c r="H62" s="61" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I62" s="62"/>
       <c r="J62" s="62"/>
@@ -3917,16 +3939,16 @@
       <c r="E63" s="23"/>
       <c r="F63" s="24"/>
       <c r="G63" s="25"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="75"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="72"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B64" s="50">
@@ -3936,25 +3958,25 @@
         <v>0</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="55"/>
-      <c r="H64" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="116"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="117"/>
+      <c r="H64" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="77"/>
+      <c r="Q64" s="78"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B65" s="50">
@@ -3964,25 +3986,25 @@
         <v>1</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F65" s="54"/>
       <c r="G65" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="H65" s="88"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="89"/>
-      <c r="O65" s="89"/>
-      <c r="P65" s="89"/>
-      <c r="Q65" s="90"/>
+        <v>104</v>
+      </c>
+      <c r="H65" s="79"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="81"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B66" s="50">
@@ -3992,25 +4014,25 @@
         <v>2</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F66" s="54"/>
       <c r="G66" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="H66" s="88"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="89"/>
-      <c r="N66" s="89"/>
-      <c r="O66" s="89"/>
-      <c r="P66" s="89"/>
-      <c r="Q66" s="90"/>
+        <v>110</v>
+      </c>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="81"/>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B67" s="50">
@@ -4020,421 +4042,435 @@
         <v>3</v>
       </c>
       <c r="D67" s="56" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F67" s="54"/>
       <c r="G67" s="57"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="90"/>
-    </row>
-    <row r="68" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="74"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="75"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="81"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B68" s="50">
+        <v>6</v>
+      </c>
+      <c r="C68" s="51">
+        <v>4</v>
+      </c>
+      <c r="D68" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="66"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B69" s="11">
-        <v>10</v>
-      </c>
-      <c r="C69" s="9">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="47"/>
-      <c r="F69" s="70">
-        <v>0</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H69" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="78"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B70" s="11">
-        <v>10</v>
-      </c>
-      <c r="C70" s="7">
-        <v>1</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" s="47"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-      <c r="N70" s="80"/>
-      <c r="O70" s="80"/>
-      <c r="P70" s="80"/>
-      <c r="Q70" s="81"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="64"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="66"/>
+    </row>
+    <row r="70" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="72"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B71" s="11">
         <v>10</v>
       </c>
-      <c r="C71" s="7">
-        <v>2</v>
+      <c r="C71" s="9">
+        <v>0</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E71" s="47"/>
-      <c r="F71" s="71"/>
+      <c r="F71" s="113">
+        <v>0</v>
+      </c>
       <c r="G71" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" s="82"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="84"/>
+        <v>58</v>
+      </c>
+      <c r="H71" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="75"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B72" s="11">
         <v>10</v>
       </c>
       <c r="C72" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E72" s="47"/>
-      <c r="F72" s="72"/>
+      <c r="F72" s="114"/>
       <c r="G72" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="77"/>
-      <c r="M72" s="77"/>
-      <c r="N72" s="77"/>
-      <c r="O72" s="77"/>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="78"/>
-    </row>
-    <row r="73" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="74"/>
-      <c r="P73" s="74"/>
-      <c r="Q73" s="75"/>
+        <v>61</v>
+      </c>
+      <c r="H72" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="117"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="117"/>
+      <c r="L72" s="117"/>
+      <c r="M72" s="117"/>
+      <c r="N72" s="117"/>
+      <c r="O72" s="117"/>
+      <c r="P72" s="117"/>
+      <c r="Q72" s="118"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B73" s="11">
+        <v>10</v>
+      </c>
+      <c r="C73" s="7">
+        <v>2</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="47"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="119"/>
+      <c r="I73" s="120"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="120"/>
+      <c r="L73" s="120"/>
+      <c r="M73" s="120"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="120"/>
+      <c r="P73" s="120"/>
+      <c r="Q73" s="121"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B74" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="7">
-        <v>0</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="67">
-        <v>0</v>
-      </c>
-      <c r="G74" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="H74" s="76"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
-      <c r="M74" s="77"/>
-      <c r="N74" s="77"/>
-      <c r="O74" s="77"/>
-      <c r="P74" s="77"/>
-      <c r="Q74" s="78"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B75" s="11">
-        <v>11</v>
-      </c>
-      <c r="C75" s="7">
-        <v>1</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="77"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="77"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="78"/>
+        <v>3</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="47"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="75"/>
+    </row>
+    <row r="75" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="72"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B76" s="11">
         <v>11</v>
       </c>
       <c r="C76" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="E76" s="48"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="77"/>
-      <c r="N76" s="77"/>
-      <c r="O76" s="77"/>
-      <c r="P76" s="77"/>
-      <c r="Q76" s="78"/>
+      <c r="F76" s="107">
+        <v>0</v>
+      </c>
+      <c r="G76" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="73"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
+      <c r="Q76" s="75"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B77" s="11">
         <v>11</v>
       </c>
       <c r="C77" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E77" s="48"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="77"/>
-      <c r="Q77" s="78"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="75"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B78" s="11">
         <v>11</v>
       </c>
       <c r="C78" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" s="48"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
-      <c r="M78" s="77"/>
-      <c r="N78" s="77"/>
-      <c r="O78" s="77"/>
-      <c r="P78" s="77"/>
-      <c r="Q78" s="78"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="75"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B79" s="11">
         <v>11</v>
       </c>
       <c r="C79" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" s="48"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="77"/>
-      <c r="M79" s="77"/>
-      <c r="N79" s="77"/>
-      <c r="O79" s="77"/>
-      <c r="P79" s="77"/>
-      <c r="Q79" s="78"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="75"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B80" s="11">
         <v>11</v>
       </c>
       <c r="C80" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80" s="48"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
-      <c r="M80" s="77"/>
-      <c r="N80" s="77"/>
-      <c r="O80" s="77"/>
-      <c r="P80" s="77"/>
-      <c r="Q80" s="78"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="111"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="74"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="74"/>
+      <c r="Q80" s="75"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B81" s="11">
         <v>11</v>
       </c>
       <c r="C81" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="48"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="74"/>
+      <c r="P81" s="74"/>
+      <c r="Q81" s="75"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B82" s="11">
+        <v>11</v>
+      </c>
+      <c r="C82" s="7">
         <v>6</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="121"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
-      <c r="M81" s="77"/>
-      <c r="N81" s="77"/>
-      <c r="O81" s="77"/>
-      <c r="P81" s="77"/>
-      <c r="Q81" s="78"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B82" s="49"/>
-      <c r="C82" s="7">
-        <v>8</v>
-      </c>
       <c r="D82" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82" s="48"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77"/>
-      <c r="N82" s="77"/>
-      <c r="O82" s="77"/>
-      <c r="P82" s="77"/>
-      <c r="Q82" s="78"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
+      <c r="P82" s="74"/>
+      <c r="Q82" s="75"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B83" s="11">
         <v>11</v>
       </c>
       <c r="C83" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D83" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="76"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="75"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B84" s="49"/>
+      <c r="C84" s="7">
         <v>8</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="77"/>
-      <c r="P83" s="77"/>
-      <c r="Q83" s="78"/>
-    </row>
-    <row r="84" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="25"/>
+      <c r="D84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="111"/>
       <c r="H84" s="73"/>
       <c r="I84" s="74"/>
       <c r="J84" s="74"/>
@@ -4447,36 +4483,28 @@
       <c r="Q84" s="75"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B85" s="50">
-        <v>12</v>
-      </c>
-      <c r="C85" s="51">
-        <v>0</v>
-      </c>
-      <c r="D85" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F85" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="G85" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="H85" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="89"/>
-      <c r="M85" s="89"/>
-      <c r="N85" s="89"/>
-      <c r="O85" s="89"/>
-      <c r="P85" s="89"/>
-      <c r="Q85" s="90"/>
+      <c r="B85" s="11">
+        <v>11</v>
+      </c>
+      <c r="C85" s="7">
+        <v>9</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="48"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="112"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="74"/>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="75"/>
     </row>
     <row r="86" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
@@ -4485,155 +4513,197 @@
       <c r="E86" s="23"/>
       <c r="F86" s="24"/>
       <c r="G86" s="25"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="74"/>
-      <c r="J86" s="74"/>
-      <c r="K86" s="74"/>
-      <c r="L86" s="74"/>
-      <c r="M86" s="74"/>
-      <c r="N86" s="74"/>
-      <c r="O86" s="74"/>
-      <c r="P86" s="74"/>
-      <c r="Q86" s="75"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="72"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B87" s="11">
+      <c r="B87" s="50">
+        <v>12</v>
+      </c>
+      <c r="C87" s="51">
+        <v>0</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="7">
+      <c r="F87" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H87" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="I87" s="80"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="80"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="80"/>
+      <c r="Q87" s="81"/>
+    </row>
+    <row r="88" spans="2:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="71"/>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="72"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B89" s="11">
+        <v>98</v>
+      </c>
+      <c r="C89" s="7">
         <v>0</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E87" s="47"/>
-      <c r="F87" s="4" t="s">
+      <c r="E89" s="47"/>
+      <c r="F89" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G87" s="43" t="s">
+      <c r="G89" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H87" s="76" t="s">
+      <c r="H89" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-      <c r="N87" s="77"/>
-      <c r="O87" s="77"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="78"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B88" s="41">
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="75"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B90" s="41">
         <v>99</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C90" s="31">
         <v>0</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D90" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E88" s="42"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="118" t="s">
+      <c r="E90" s="42"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="I88" s="119"/>
-      <c r="J88" s="119"/>
-      <c r="K88" s="119"/>
-      <c r="L88" s="119"/>
-      <c r="M88" s="119"/>
-      <c r="N88" s="119"/>
-      <c r="O88" s="119"/>
-      <c r="P88" s="119"/>
-      <c r="Q88" s="120"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="105"/>
-      <c r="I89" s="105"/>
-      <c r="J89" s="105"/>
-      <c r="K89" s="105"/>
-      <c r="L89" s="105"/>
-      <c r="M89" s="105"/>
-      <c r="N89" s="105"/>
-      <c r="O89" s="105"/>
-      <c r="P89" s="105"/>
-      <c r="Q89" s="105"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="105"/>
-      <c r="J90" s="105"/>
-      <c r="K90" s="105"/>
-      <c r="L90" s="105"/>
-      <c r="M90" s="105"/>
-      <c r="N90" s="105"/>
-      <c r="O90" s="105"/>
-      <c r="P90" s="105"/>
-      <c r="Q90" s="105"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="69"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="105"/>
-      <c r="J91" s="105"/>
-      <c r="K91" s="105"/>
-      <c r="L91" s="105"/>
-      <c r="M91" s="105"/>
-      <c r="N91" s="105"/>
-      <c r="O91" s="105"/>
-      <c r="P91" s="105"/>
-      <c r="Q91" s="105"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="86"/>
+      <c r="L91" s="86"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="86"/>
+      <c r="O91" s="86"/>
+      <c r="P91" s="86"/>
+      <c r="Q91" s="86"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="105"/>
-      <c r="I92" s="105"/>
-      <c r="J92" s="105"/>
-      <c r="K92" s="105"/>
-      <c r="L92" s="105"/>
-      <c r="M92" s="105"/>
-      <c r="N92" s="105"/>
-      <c r="O92" s="105"/>
-      <c r="P92" s="105"/>
-      <c r="Q92" s="105"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="86"/>
+      <c r="I92" s="86"/>
+      <c r="J92" s="86"/>
+      <c r="K92" s="86"/>
+      <c r="L92" s="86"/>
+      <c r="M92" s="86"/>
+      <c r="N92" s="86"/>
+      <c r="O92" s="86"/>
+      <c r="P92" s="86"/>
+      <c r="Q92" s="86"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105"/>
-      <c r="N93" s="105"/>
-      <c r="O93" s="105"/>
-      <c r="P93" s="105"/>
-      <c r="Q93" s="105"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="86"/>
+      <c r="I93" s="86"/>
+      <c r="J93" s="86"/>
+      <c r="K93" s="86"/>
+      <c r="L93" s="86"/>
+      <c r="M93" s="86"/>
+      <c r="N93" s="86"/>
+      <c r="O93" s="86"/>
+      <c r="P93" s="86"/>
+      <c r="Q93" s="86"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="86"/>
+      <c r="I94" s="86"/>
+      <c r="J94" s="86"/>
+      <c r="K94" s="86"/>
+      <c r="L94" s="86"/>
+      <c r="M94" s="86"/>
+      <c r="N94" s="86"/>
+      <c r="O94" s="86"/>
+      <c r="P94" s="86"/>
+      <c r="Q94" s="86"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
+      <c r="G95" s="86"/>
+      <c r="H95" s="86"/>
+      <c r="I95" s="86"/>
+      <c r="J95" s="86"/>
+      <c r="K95" s="86"/>
+      <c r="L95" s="86"/>
+      <c r="M95" s="86"/>
+      <c r="N95" s="86"/>
+      <c r="O95" s="86"/>
+      <c r="P95" s="86"/>
+      <c r="Q95" s="86"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B96" s="9"/>
@@ -4648,6 +4718,7 @@
       <c r="C98" s="9"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B99" s="9"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.15">
@@ -4655,7 +4726,6 @@
       <c r="C100" s="9"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B101" s="9"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.15">
@@ -4674,70 +4744,40 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
     </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="H88:Q88"/>
-    <mergeCell ref="H50:Q50"/>
-    <mergeCell ref="H78:Q78"/>
-    <mergeCell ref="H79:Q79"/>
-    <mergeCell ref="H80:Q80"/>
-    <mergeCell ref="H81:Q81"/>
-    <mergeCell ref="H82:Q82"/>
-    <mergeCell ref="H73:Q73"/>
+    <mergeCell ref="G76:G85"/>
+    <mergeCell ref="F76:F85"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="H70:Q70"/>
     <mergeCell ref="H74:Q74"/>
-    <mergeCell ref="H75:Q75"/>
-    <mergeCell ref="H76:Q76"/>
-    <mergeCell ref="H77:Q77"/>
-    <mergeCell ref="H59:Q59"/>
-    <mergeCell ref="H87:Q87"/>
-    <mergeCell ref="H56:Q56"/>
-    <mergeCell ref="H45:Q45"/>
-    <mergeCell ref="H51:Q51"/>
-    <mergeCell ref="H53:Q53"/>
-    <mergeCell ref="H54:Q54"/>
-    <mergeCell ref="H55:Q55"/>
-    <mergeCell ref="H8:Q8"/>
-    <mergeCell ref="H9:Q9"/>
-    <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="H86:Q86"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="H28:Q28"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="H20:Q20"/>
-    <mergeCell ref="H84:Q84"/>
+    <mergeCell ref="H72:Q73"/>
     <mergeCell ref="H85:Q85"/>
-    <mergeCell ref="H64:Q64"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G93:Q93"/>
-    <mergeCell ref="G89:Q89"/>
-    <mergeCell ref="G90:Q90"/>
-    <mergeCell ref="G91:Q91"/>
-    <mergeCell ref="G92:Q92"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:G23"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H4:Q4"/>
-    <mergeCell ref="H3:Q3"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="H44:Q44"/>
-    <mergeCell ref="H58:Q58"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H23:Q23"/>
-    <mergeCell ref="H24:Q24"/>
-    <mergeCell ref="H25:Q25"/>
-    <mergeCell ref="H26:Q26"/>
-    <mergeCell ref="H27:Q27"/>
+    <mergeCell ref="H46:Q46"/>
+    <mergeCell ref="H52:Q52"/>
+    <mergeCell ref="H47:Q47"/>
+    <mergeCell ref="H48:Q48"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="H71:Q71"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="H65:Q65"/>
+    <mergeCell ref="H66:Q66"/>
+    <mergeCell ref="H67:Q67"/>
+    <mergeCell ref="H57:Q57"/>
+    <mergeCell ref="H60:Q60"/>
+    <mergeCell ref="H61:Q61"/>
+    <mergeCell ref="H63:Q63"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F24:G24"/>
@@ -4762,30 +4802,68 @@
     <mergeCell ref="H32:Q32"/>
     <mergeCell ref="H21:Q21"/>
     <mergeCell ref="H22:Q22"/>
-    <mergeCell ref="G74:G83"/>
-    <mergeCell ref="F74:F83"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="H68:Q68"/>
-    <mergeCell ref="H72:Q72"/>
-    <mergeCell ref="H70:Q71"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G95:Q95"/>
+    <mergeCell ref="G91:Q91"/>
+    <mergeCell ref="G92:Q92"/>
+    <mergeCell ref="G93:Q93"/>
+    <mergeCell ref="G94:Q94"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:G23"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H4:Q4"/>
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="H44:Q44"/>
+    <mergeCell ref="H58:Q58"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H23:Q23"/>
+    <mergeCell ref="H24:Q24"/>
+    <mergeCell ref="H25:Q25"/>
+    <mergeCell ref="H26:Q26"/>
+    <mergeCell ref="H27:Q27"/>
+    <mergeCell ref="H45:Q45"/>
+    <mergeCell ref="H51:Q51"/>
+    <mergeCell ref="H53:Q53"/>
+    <mergeCell ref="H54:Q54"/>
+    <mergeCell ref="H55:Q55"/>
+    <mergeCell ref="H8:Q8"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="H10:Q10"/>
+    <mergeCell ref="H88:Q88"/>
+    <mergeCell ref="H11:Q11"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="H28:Q28"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="H20:Q20"/>
+    <mergeCell ref="H86:Q86"/>
+    <mergeCell ref="H87:Q87"/>
+    <mergeCell ref="H64:Q64"/>
+    <mergeCell ref="H90:Q90"/>
+    <mergeCell ref="H50:Q50"/>
+    <mergeCell ref="H80:Q80"/>
+    <mergeCell ref="H81:Q81"/>
+    <mergeCell ref="H82:Q82"/>
     <mergeCell ref="H83:Q83"/>
-    <mergeCell ref="H46:Q46"/>
-    <mergeCell ref="H52:Q52"/>
-    <mergeCell ref="H47:Q47"/>
-    <mergeCell ref="H48:Q48"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="H69:Q69"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="H65:Q65"/>
-    <mergeCell ref="H66:Q66"/>
-    <mergeCell ref="H67:Q67"/>
-    <mergeCell ref="H57:Q57"/>
-    <mergeCell ref="H60:Q60"/>
-    <mergeCell ref="H61:Q61"/>
-    <mergeCell ref="H63:Q63"/>
+    <mergeCell ref="H84:Q84"/>
+    <mergeCell ref="H75:Q75"/>
+    <mergeCell ref="H76:Q76"/>
+    <mergeCell ref="H77:Q77"/>
+    <mergeCell ref="H78:Q78"/>
+    <mergeCell ref="H79:Q79"/>
+    <mergeCell ref="H59:Q59"/>
+    <mergeCell ref="H89:Q89"/>
+    <mergeCell ref="H56:Q56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4811,812 +4889,812 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="126" t="s">
+      <c r="G2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="137"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
     </row>
     <row r="4" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="147">
+      <c r="C4" s="130">
         <v>0</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="143" t="s">
+      <c r="F4" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="144"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="138"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="135"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="92"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="124"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="135"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="124"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="135"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="92"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="124"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="135"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="78"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="139">
+      <c r="C9" s="131"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="132">
         <v>0</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="134"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="133"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="135"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="92"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="124"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="135"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="124"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="135"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="124"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="135"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="124"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="138" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="134"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="133"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="135"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="124"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="135"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="135"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B18" s="135"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="92"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="124"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="139">
+      <c r="C19" s="131"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="132">
         <v>0</v>
       </c>
-      <c r="F19" s="132" t="s">
+      <c r="F19" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="134"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="133"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="135"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="124"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="135"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="124"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="135"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="92"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="124"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="135"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="92"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="124"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="148"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="139">
+      <c r="C24" s="131"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="132">
         <v>0</v>
       </c>
-      <c r="F24" s="132" t="s">
+      <c r="F24" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="134"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="133"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="135"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="124"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="135"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="124"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="135"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="92"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="124"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="135"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="124"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="148"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="139">
+      <c r="C29" s="131"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="132">
         <v>0</v>
       </c>
-      <c r="F29" s="132" t="s">
+      <c r="F29" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="134"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="133"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B30" s="135"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="124"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="135"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="92"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="124"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="135"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="124"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B33" s="135"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="124"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="139">
+      <c r="C34" s="131"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="132">
         <v>0</v>
       </c>
-      <c r="F34" s="132" t="s">
+      <c r="F34" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="133"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="134"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="133"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B35" s="135"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="92"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="124"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="135"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="92"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="124"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B37" s="135"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="92"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="124"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B38" s="135"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="92"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="124"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="148"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="139">
+      <c r="C39" s="131"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="132">
         <v>0</v>
       </c>
-      <c r="F39" s="132" t="s">
+      <c r="F39" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="134"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="133"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="135"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="92"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="124"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="135"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="92"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="124"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B42" s="135"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="92"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="123"/>
+      <c r="P42" s="124"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B43" s="135"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="92"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="124"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B44" s="135" t="s">
+      <c r="B44" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="148"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="133">
+      <c r="C44" s="131"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="125">
         <v>0</v>
       </c>
-      <c r="F44" s="132" t="s">
+      <c r="F44" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="78"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="75"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B45" s="135"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="132"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="129"/>
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -5629,68 +5707,68 @@
       <c r="P45" s="28"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B46" s="135"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="78"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="75"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B47" s="135"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="78"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="75"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="148"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="133">
+      <c r="C48" s="131"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="125">
         <v>0</v>
       </c>
-      <c r="F48" s="132" t="s">
+      <c r="F48" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-      <c r="P48" s="78"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="75"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B49" s="135"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="132"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="129"/>
       <c r="G49" s="26"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -5703,68 +5781,68 @@
       <c r="P49" s="28"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B50" s="135"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="78"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="75"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B51" s="135"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="78"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="75"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B52" s="135" t="s">
+      <c r="B52" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="148"/>
-      <c r="D52" s="145"/>
-      <c r="E52" s="70">
+      <c r="C52" s="131"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="113">
         <v>0</v>
       </c>
-      <c r="F52" s="132" t="s">
+      <c r="F52" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="76"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="78"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="75"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B53" s="135"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="132"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="129"/>
       <c r="G53" s="26"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -5777,68 +5855,68 @@
       <c r="P53" s="28"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B54" s="135"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="78"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="75"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B55" s="135"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="78"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="75"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B56" s="135" t="s">
+      <c r="B56" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="148"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="70">
+      <c r="C56" s="131"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="113">
         <v>0</v>
       </c>
-      <c r="F56" s="132" t="s">
+      <c r="F56" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="G56" s="76"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="77"/>
-      <c r="O56" s="77"/>
-      <c r="P56" s="78"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="75"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B57" s="135"/>
-      <c r="C57" s="148"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="132"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="129"/>
       <c r="G57" s="26"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -5851,38 +5929,38 @@
       <c r="P57" s="28"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B58" s="135"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="77"/>
-      <c r="O58" s="77"/>
-      <c r="P58" s="78"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="75"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B59" s="135"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="77"/>
-      <c r="P59" s="78"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="75"/>
     </row>
     <row r="60" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="33"/>
@@ -5890,16 +5968,16 @@
       <c r="D60" s="21"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="75"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="72"/>
     </row>
     <row r="61" spans="2:16" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="37" t="s">
@@ -5917,16 +5995,16 @@
       <c r="F61" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="123"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="144"/>
+      <c r="N61" s="144"/>
+      <c r="O61" s="144"/>
+      <c r="P61" s="145"/>
     </row>
     <row r="62" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="33"/>
@@ -5934,118 +6012,118 @@
       <c r="D62" s="21"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="124"/>
-      <c r="P62" s="125"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="141"/>
+      <c r="J62" s="141"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="141"/>
+      <c r="N62" s="141"/>
+      <c r="O62" s="141"/>
+      <c r="P62" s="142"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B63" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="133">
+      <c r="C63" s="125">
         <v>10</v>
       </c>
       <c r="D63" s="7">
         <v>0</v>
       </c>
-      <c r="E63" s="133">
+      <c r="E63" s="125">
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G63" s="91" t="s">
+      <c r="G63" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="91"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="91"/>
-      <c r="P63" s="92"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="123"/>
+      <c r="M63" s="123"/>
+      <c r="N63" s="123"/>
+      <c r="O63" s="123"/>
+      <c r="P63" s="124"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B64" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="133"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="7">
         <v>1</v>
       </c>
-      <c r="E64" s="133"/>
+      <c r="E64" s="125"/>
       <c r="F64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="91" t="s">
+      <c r="G64" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="91"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="91"/>
-      <c r="K64" s="91"/>
-      <c r="L64" s="91"/>
-      <c r="M64" s="91"/>
-      <c r="N64" s="91"/>
-      <c r="O64" s="91"/>
-      <c r="P64" s="92"/>
+      <c r="H64" s="123"/>
+      <c r="I64" s="123"/>
+      <c r="J64" s="123"/>
+      <c r="K64" s="123"/>
+      <c r="L64" s="123"/>
+      <c r="M64" s="123"/>
+      <c r="N64" s="123"/>
+      <c r="O64" s="123"/>
+      <c r="P64" s="124"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="133"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="7">
         <v>2</v>
       </c>
-      <c r="E65" s="133"/>
+      <c r="E65" s="125"/>
       <c r="F65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
-      <c r="M65" s="91"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="91"/>
-      <c r="P65" s="92"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="123"/>
+      <c r="L65" s="123"/>
+      <c r="M65" s="123"/>
+      <c r="N65" s="123"/>
+      <c r="O65" s="123"/>
+      <c r="P65" s="124"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B66" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="133"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="7">
         <v>3</v>
       </c>
-      <c r="E66" s="133"/>
+      <c r="E66" s="125"/>
       <c r="F66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G66" s="91" t="s">
+      <c r="G66" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="91"/>
-      <c r="P66" s="92"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123"/>
+      <c r="L66" s="123"/>
+      <c r="M66" s="123"/>
+      <c r="N66" s="123"/>
+      <c r="O66" s="123"/>
+      <c r="P66" s="124"/>
     </row>
     <row r="67" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="33"/>
@@ -6053,232 +6131,232 @@
       <c r="D67" s="21"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
-      <c r="K67" s="124"/>
-      <c r="L67" s="124"/>
-      <c r="M67" s="124"/>
-      <c r="N67" s="124"/>
-      <c r="O67" s="124"/>
-      <c r="P67" s="125"/>
+      <c r="G67" s="141"/>
+      <c r="H67" s="141"/>
+      <c r="I67" s="141"/>
+      <c r="J67" s="141"/>
+      <c r="K67" s="141"/>
+      <c r="L67" s="141"/>
+      <c r="M67" s="141"/>
+      <c r="N67" s="141"/>
+      <c r="O67" s="141"/>
+      <c r="P67" s="142"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B68" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="133">
+      <c r="C68" s="125">
         <v>11</v>
       </c>
       <c r="D68" s="7">
         <v>0</v>
       </c>
-      <c r="E68" s="133">
+      <c r="E68" s="125">
         <v>0</v>
       </c>
-      <c r="F68" s="140" t="s">
+      <c r="F68" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="91"/>
-      <c r="N68" s="91"/>
-      <c r="O68" s="91"/>
-      <c r="P68" s="92"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="123"/>
+      <c r="J68" s="123"/>
+      <c r="K68" s="123"/>
+      <c r="L68" s="123"/>
+      <c r="M68" s="123"/>
+      <c r="N68" s="123"/>
+      <c r="O68" s="123"/>
+      <c r="P68" s="124"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B69" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="133"/>
+      <c r="C69" s="125"/>
       <c r="D69" s="7">
         <v>1</v>
       </c>
-      <c r="E69" s="133"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="91"/>
-      <c r="M69" s="91"/>
-      <c r="N69" s="91"/>
-      <c r="O69" s="91"/>
-      <c r="P69" s="92"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="123"/>
+      <c r="L69" s="123"/>
+      <c r="M69" s="123"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="123"/>
+      <c r="P69" s="124"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="133"/>
+      <c r="C70" s="125"/>
       <c r="D70" s="7">
         <v>2</v>
       </c>
-      <c r="E70" s="133"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
-      <c r="O70" s="91"/>
-      <c r="P70" s="92"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="143"/>
+      <c r="G70" s="123"/>
+      <c r="H70" s="123"/>
+      <c r="I70" s="123"/>
+      <c r="J70" s="123"/>
+      <c r="K70" s="123"/>
+      <c r="L70" s="123"/>
+      <c r="M70" s="123"/>
+      <c r="N70" s="123"/>
+      <c r="O70" s="123"/>
+      <c r="P70" s="124"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="133"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="7">
         <v>3</v>
       </c>
-      <c r="E71" s="133"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
-      <c r="M71" s="91"/>
-      <c r="N71" s="91"/>
-      <c r="O71" s="91"/>
-      <c r="P71" s="92"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="123"/>
+      <c r="H71" s="123"/>
+      <c r="I71" s="123"/>
+      <c r="J71" s="123"/>
+      <c r="K71" s="123"/>
+      <c r="L71" s="123"/>
+      <c r="M71" s="123"/>
+      <c r="N71" s="123"/>
+      <c r="O71" s="123"/>
+      <c r="P71" s="124"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="133"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="7">
         <v>4</v>
       </c>
-      <c r="E72" s="133"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="92"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="143"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="123"/>
+      <c r="L72" s="123"/>
+      <c r="M72" s="123"/>
+      <c r="N72" s="123"/>
+      <c r="O72" s="123"/>
+      <c r="P72" s="124"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B73" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="133"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="7">
         <v>5</v>
       </c>
-      <c r="E73" s="133"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="91"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
-      <c r="O73" s="91"/>
-      <c r="P73" s="92"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="143"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="123"/>
+      <c r="I73" s="123"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="123"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="123"/>
+      <c r="N73" s="123"/>
+      <c r="O73" s="123"/>
+      <c r="P73" s="124"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="133"/>
+      <c r="C74" s="125"/>
       <c r="D74" s="7">
         <v>6</v>
       </c>
-      <c r="E74" s="133"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="92"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="143"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
+      <c r="J74" s="123"/>
+      <c r="K74" s="123"/>
+      <c r="L74" s="123"/>
+      <c r="M74" s="123"/>
+      <c r="N74" s="123"/>
+      <c r="O74" s="123"/>
+      <c r="P74" s="124"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="133"/>
+      <c r="C75" s="125"/>
       <c r="D75" s="7">
         <v>7</v>
       </c>
-      <c r="E75" s="133"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="91"/>
-      <c r="K75" s="91"/>
-      <c r="L75" s="91"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
-      <c r="O75" s="91"/>
-      <c r="P75" s="92"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="143"/>
+      <c r="G75" s="123"/>
+      <c r="H75" s="123"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="123"/>
+      <c r="K75" s="123"/>
+      <c r="L75" s="123"/>
+      <c r="M75" s="123"/>
+      <c r="N75" s="123"/>
+      <c r="O75" s="123"/>
+      <c r="P75" s="124"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="133"/>
+      <c r="C76" s="125"/>
       <c r="D76" s="7">
         <v>8</v>
       </c>
-      <c r="E76" s="133"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91"/>
-      <c r="L76" s="91"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="91"/>
-      <c r="O76" s="91"/>
-      <c r="P76" s="92"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="143"/>
+      <c r="G76" s="123"/>
+      <c r="H76" s="123"/>
+      <c r="I76" s="123"/>
+      <c r="J76" s="123"/>
+      <c r="K76" s="123"/>
+      <c r="L76" s="123"/>
+      <c r="M76" s="123"/>
+      <c r="N76" s="123"/>
+      <c r="O76" s="123"/>
+      <c r="P76" s="124"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B77" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="133"/>
+      <c r="C77" s="125"/>
       <c r="D77" s="7">
         <v>9</v>
       </c>
-      <c r="E77" s="133"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
-      <c r="L77" s="91"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
-      <c r="O77" s="91"/>
-      <c r="P77" s="92"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="143"/>
+      <c r="G77" s="123"/>
+      <c r="H77" s="123"/>
+      <c r="I77" s="123"/>
+      <c r="J77" s="123"/>
+      <c r="K77" s="123"/>
+      <c r="L77" s="123"/>
+      <c r="M77" s="123"/>
+      <c r="N77" s="123"/>
+      <c r="O77" s="123"/>
+      <c r="P77" s="124"/>
     </row>
     <row r="78" spans="2:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="33"/>
@@ -6286,16 +6364,16 @@
       <c r="D78" s="21"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="124"/>
-      <c r="P78" s="125"/>
+      <c r="G78" s="141"/>
+      <c r="H78" s="141"/>
+      <c r="I78" s="141"/>
+      <c r="J78" s="141"/>
+      <c r="K78" s="141"/>
+      <c r="L78" s="141"/>
+      <c r="M78" s="141"/>
+      <c r="N78" s="141"/>
+      <c r="O78" s="141"/>
+      <c r="P78" s="142"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B79" s="34" t="s">
@@ -6313,16 +6391,16 @@
       <c r="F79" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="92"/>
+      <c r="G79" s="123"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
+      <c r="J79" s="123"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="123"/>
+      <c r="M79" s="123"/>
+      <c r="N79" s="123"/>
+      <c r="O79" s="123"/>
+      <c r="P79" s="124"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B80" s="36" t="s">
@@ -6336,93 +6414,93 @@
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="32"/>
-      <c r="G80" s="118" t="s">
+      <c r="G80" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="119"/>
-      <c r="I80" s="119"/>
-      <c r="J80" s="119"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="119"/>
-      <c r="M80" s="119"/>
-      <c r="N80" s="119"/>
-      <c r="O80" s="119"/>
-      <c r="P80" s="120"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="68"/>
+      <c r="M80" s="68"/>
+      <c r="N80" s="68"/>
+      <c r="O80" s="68"/>
+      <c r="P80" s="69"/>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="105"/>
-      <c r="K81" s="105"/>
-      <c r="L81" s="105"/>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
-      <c r="O81" s="105"/>
-      <c r="P81" s="105"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="86"/>
+      <c r="K81" s="86"/>
+      <c r="L81" s="86"/>
+      <c r="M81" s="86"/>
+      <c r="N81" s="86"/>
+      <c r="O81" s="86"/>
+      <c r="P81" s="86"/>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
-      <c r="I82" s="105"/>
-      <c r="J82" s="105"/>
-      <c r="K82" s="105"/>
-      <c r="L82" s="105"/>
-      <c r="M82" s="105"/>
-      <c r="N82" s="105"/>
-      <c r="O82" s="105"/>
-      <c r="P82" s="105"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="86"/>
+      <c r="K82" s="86"/>
+      <c r="L82" s="86"/>
+      <c r="M82" s="86"/>
+      <c r="N82" s="86"/>
+      <c r="O82" s="86"/>
+      <c r="P82" s="86"/>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="105"/>
-      <c r="K83" s="105"/>
-      <c r="L83" s="105"/>
-      <c r="M83" s="105"/>
-      <c r="N83" s="105"/>
-      <c r="O83" s="105"/>
-      <c r="P83" s="105"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="86"/>
+      <c r="L83" s="86"/>
+      <c r="M83" s="86"/>
+      <c r="N83" s="86"/>
+      <c r="O83" s="86"/>
+      <c r="P83" s="86"/>
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="105"/>
-      <c r="N84" s="105"/>
-      <c r="O84" s="105"/>
-      <c r="P84" s="105"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
+      <c r="K84" s="86"/>
+      <c r="L84" s="86"/>
+      <c r="M84" s="86"/>
+      <c r="N84" s="86"/>
+      <c r="O84" s="86"/>
+      <c r="P84" s="86"/>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="105"/>
-      <c r="L85" s="105"/>
-      <c r="M85" s="105"/>
-      <c r="N85" s="105"/>
-      <c r="O85" s="105"/>
-      <c r="P85" s="105"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
+      <c r="K85" s="86"/>
+      <c r="L85" s="86"/>
+      <c r="M85" s="86"/>
+      <c r="N85" s="86"/>
+      <c r="O85" s="86"/>
+      <c r="P85" s="86"/>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C86" s="9"/>
@@ -6474,6 +6552,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="G72:P72"/>
+    <mergeCell ref="G73:P73"/>
+    <mergeCell ref="G74:P74"/>
+    <mergeCell ref="G60:P60"/>
+    <mergeCell ref="G61:P61"/>
+    <mergeCell ref="G62:P62"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:P3"/>
+    <mergeCell ref="G44:P44"/>
+    <mergeCell ref="G46:P46"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:P19"/>
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="G21:P21"/>
+    <mergeCell ref="G14:P14"/>
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="G18:P18"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="G63:P63"/>
+    <mergeCell ref="G64:P65"/>
+    <mergeCell ref="G66:P66"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="F82:P82"/>
+    <mergeCell ref="F83:P83"/>
+    <mergeCell ref="F84:P84"/>
+    <mergeCell ref="G40:P40"/>
+    <mergeCell ref="G41:P41"/>
+    <mergeCell ref="G42:P42"/>
+    <mergeCell ref="G79:P79"/>
+    <mergeCell ref="G58:P58"/>
+    <mergeCell ref="G59:P59"/>
+    <mergeCell ref="G47:P47"/>
+    <mergeCell ref="G48:P48"/>
+    <mergeCell ref="G50:P50"/>
+    <mergeCell ref="G51:P51"/>
+    <mergeCell ref="G52:P52"/>
+    <mergeCell ref="G54:P54"/>
+    <mergeCell ref="G55:P55"/>
+    <mergeCell ref="G56:P56"/>
+    <mergeCell ref="G71:P71"/>
+    <mergeCell ref="F85:P85"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="G75:P75"/>
+    <mergeCell ref="G76:P76"/>
+    <mergeCell ref="G77:P77"/>
+    <mergeCell ref="G78:P78"/>
+    <mergeCell ref="G80:P80"/>
+    <mergeCell ref="F81:P81"/>
+    <mergeCell ref="G67:P67"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="F68:F77"/>
+    <mergeCell ref="G68:P68"/>
+    <mergeCell ref="G69:P69"/>
+    <mergeCell ref="G70:P70"/>
+    <mergeCell ref="G43:P43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:P39"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="G36:P36"/>
+    <mergeCell ref="G37:P37"/>
+    <mergeCell ref="G38:P38"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="G11:P11"/>
+    <mergeCell ref="G12:P12"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="G5:P5"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="G25:P25"/>
+    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="G27:P27"/>
     <mergeCell ref="C63:C66"/>
     <mergeCell ref="D4:D59"/>
     <mergeCell ref="C68:C77"/>
@@ -6498,230 +6678,10 @@
     <mergeCell ref="E29:E33"/>
     <mergeCell ref="F29:F33"/>
     <mergeCell ref="G29:P29"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="G5:P5"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:P24"/>
-    <mergeCell ref="G25:P25"/>
-    <mergeCell ref="G26:P26"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="G36:P36"/>
-    <mergeCell ref="G37:P37"/>
-    <mergeCell ref="G38:P38"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="G10:P10"/>
-    <mergeCell ref="G11:P11"/>
-    <mergeCell ref="G12:P12"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="F85:P85"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="G75:P75"/>
-    <mergeCell ref="G76:P76"/>
-    <mergeCell ref="G77:P77"/>
-    <mergeCell ref="G78:P78"/>
-    <mergeCell ref="G80:P80"/>
-    <mergeCell ref="F81:P81"/>
-    <mergeCell ref="G67:P67"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="F68:F77"/>
-    <mergeCell ref="G68:P68"/>
-    <mergeCell ref="G69:P69"/>
-    <mergeCell ref="G70:P70"/>
-    <mergeCell ref="G43:P43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:P39"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="G63:P63"/>
-    <mergeCell ref="G64:P65"/>
-    <mergeCell ref="G66:P66"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="G23:P23"/>
-    <mergeCell ref="F82:P82"/>
-    <mergeCell ref="F83:P83"/>
-    <mergeCell ref="F84:P84"/>
-    <mergeCell ref="G40:P40"/>
-    <mergeCell ref="G41:P41"/>
-    <mergeCell ref="G42:P42"/>
-    <mergeCell ref="G79:P79"/>
-    <mergeCell ref="G58:P58"/>
-    <mergeCell ref="G59:P59"/>
-    <mergeCell ref="G47:P47"/>
-    <mergeCell ref="G48:P48"/>
-    <mergeCell ref="G50:P50"/>
-    <mergeCell ref="G51:P51"/>
-    <mergeCell ref="G52:P52"/>
-    <mergeCell ref="G54:P54"/>
-    <mergeCell ref="G55:P55"/>
-    <mergeCell ref="G56:P56"/>
-    <mergeCell ref="G71:P71"/>
-    <mergeCell ref="G72:P72"/>
-    <mergeCell ref="G73:P73"/>
-    <mergeCell ref="G74:P74"/>
-    <mergeCell ref="G60:P60"/>
-    <mergeCell ref="G61:P61"/>
-    <mergeCell ref="G62:P62"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:P3"/>
-    <mergeCell ref="G44:P44"/>
-    <mergeCell ref="G46:P46"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="G20:P20"/>
-    <mergeCell ref="G21:P21"/>
-    <mergeCell ref="G14:P14"/>
-    <mergeCell ref="G15:P15"/>
-    <mergeCell ref="G16:P16"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="G18:P18"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="G7:P7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="149"/>
-    </row>
-    <row r="3" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="149">
-        <v>0</v>
-      </c>
-      <c r="C4" s="150" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="149"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="149">
-        <v>1</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="150" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="149"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="149"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>